--- a/Inputs/InputSchedule.xlsx
+++ b/Inputs/InputSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/ah17992_bristol_ac_uk/Documents/DP5/Shared/DP5_modelling/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:4000b_{DEB44F97-88D2-433A-B317-5E3E680ACB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72EAFE30-A94F-4A73-B468-296C8038DCCB}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:4000b_{DEB44F97-88D2-433A-B317-5E3E680ACB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69EBE43E-59F8-480A-B057-375AA2A6573F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="71">
   <si>
     <t>Case</t>
   </si>
@@ -206,13 +206,43 @@
     <t>Electric Heater</t>
   </si>
   <si>
-    <t>Fixed Tariff</t>
-  </si>
-  <si>
     <t>Fixed22Tariff.csv</t>
   </si>
   <si>
     <t>Number</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Current Household of 4</t>
+  </si>
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>Cost of Change</t>
+  </si>
+  <si>
+    <t>Current Household of 5</t>
+  </si>
+  <si>
+    <t>Current Household of 6</t>
+  </si>
+  <si>
+    <t>Current Household of 7</t>
+  </si>
+  <si>
+    <t>Current Household of 8</t>
+  </si>
+  <si>
+    <t>Current Household of 9</t>
+  </si>
+  <si>
+    <t>Agile Tariff</t>
+  </si>
+  <si>
+    <t>Fourth</t>
   </si>
 </sst>
 </file>
@@ -707,7 +737,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -718,6 +748,12 @@
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="25" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="36" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -765,7 +801,52 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1083,951 +1164,1291 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV7"/>
+  <dimension ref="A1:AY9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="34" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="40" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="5" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="4" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="43" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="5" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="4" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="5" customFormat="1" ht="111" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" s="5" customFormat="1" ht="121.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="Q1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AG1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AY1" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
       </c>
-      <c r="D2">
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>54</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <v>13700</v>
       </c>
-      <c r="F2">
+      <c r="I2">
         <v>2437.5</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
         <v>0.15</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <v>0.9</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>7.4</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>0.9</v>
       </c>
-      <c r="M2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" t="s">
         <v>48</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>4</v>
       </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="R2">
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="U2">
         <v>0.2</v>
       </c>
-      <c r="S2" s="1">
+      <c r="V2" s="1">
         <v>43521.791666666664</v>
       </c>
-      <c r="T2" s="1">
+      <c r="W2" s="1">
         <v>43524.291666666664</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>49</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>50</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2" t="s">
         <v>56</v>
       </c>
-      <c r="AB2">
+      <c r="AE2">
         <v>9</v>
       </c>
-      <c r="AC2">
+      <c r="AF2">
         <v>0.8</v>
       </c>
-      <c r="AD2">
+      <c r="AG2">
         <v>0</v>
       </c>
-      <c r="AF2">
-        <v>1</v>
-      </c>
-      <c r="AG2">
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
         <v>5</v>
       </c>
-      <c r="AH2">
+      <c r="AK2">
         <v>6</v>
       </c>
-      <c r="AJ2">
+      <c r="AM2">
         <v>10</v>
       </c>
-      <c r="AK2">
+      <c r="AN2">
         <v>2</v>
       </c>
-      <c r="AL2">
+      <c r="AO2">
         <v>10</v>
       </c>
-      <c r="AM2">
+      <c r="AP2">
         <v>15</v>
       </c>
-      <c r="AN2">
+      <c r="AQ2">
         <v>21</v>
       </c>
-      <c r="AO2">
+      <c r="AR2">
         <v>2000</v>
       </c>
-      <c r="AP2">
+      <c r="AS2">
         <v>2000</v>
       </c>
-      <c r="AQ2">
-        <v>1</v>
-      </c>
-      <c r="AR2">
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
         <v>40</v>
       </c>
-      <c r="AS2">
+      <c r="AV2">
         <v>120</v>
       </c>
-      <c r="AT2">
+      <c r="AW2">
         <v>40</v>
       </c>
-      <c r="AU2">
+      <c r="AX2">
         <v>0.3</v>
       </c>
-      <c r="AV2">
+      <c r="AY2">
         <v>0.16</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
       </c>
-      <c r="D3">
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>54</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>13700</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>2437.5</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
         <v>0.15</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>0.9</v>
       </c>
-      <c r="J3">
+      <c r="M3">
         <v>7.4</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>0.9</v>
       </c>
-      <c r="M3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" t="s">
         <v>48</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>4</v>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="R3">
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="U3">
         <v>0.2</v>
       </c>
-      <c r="S3" s="1">
+      <c r="V3" s="1">
         <v>43521.791666666664</v>
       </c>
-      <c r="T3" s="1">
+      <c r="W3" s="1">
         <v>43524.291666666664</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>49</v>
       </c>
-      <c r="V3" t="s">
+      <c r="Y3" t="s">
         <v>50</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>51</v>
       </c>
-      <c r="Y3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD3" t="s">
         <v>56</v>
       </c>
-      <c r="AB3">
+      <c r="AE3">
         <v>9</v>
       </c>
-      <c r="AC3">
+      <c r="AF3">
         <v>0.8</v>
       </c>
-      <c r="AD3">
-        <v>1</v>
-      </c>
-      <c r="AF3">
-        <v>1</v>
-      </c>
       <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
         <v>5</v>
       </c>
-      <c r="AH3">
+      <c r="AK3">
         <v>6</v>
       </c>
-      <c r="AJ3">
+      <c r="AM3">
         <v>10</v>
       </c>
-      <c r="AK3">
+      <c r="AN3">
         <v>2</v>
       </c>
-      <c r="AL3">
+      <c r="AO3">
         <v>10</v>
       </c>
-      <c r="AM3">
+      <c r="AP3">
         <v>15</v>
       </c>
-      <c r="AN3">
+      <c r="AQ3">
         <v>21</v>
       </c>
-      <c r="AO3">
+      <c r="AR3">
         <v>2000</v>
       </c>
-      <c r="AP3">
+      <c r="AS3">
         <v>2000</v>
       </c>
-      <c r="AQ3">
-        <v>1</v>
-      </c>
-      <c r="AR3">
+      <c r="AT3">
+        <v>1</v>
+      </c>
+      <c r="AU3">
         <v>40</v>
       </c>
-      <c r="AS3">
+      <c r="AV3">
         <v>120</v>
       </c>
-      <c r="AT3">
+      <c r="AW3">
         <v>40</v>
       </c>
-      <c r="AU3">
+      <c r="AX3">
         <v>0.3</v>
       </c>
-      <c r="AV3">
+      <c r="AY3">
         <v>0.16</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
       </c>
-      <c r="D4">
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4">
+        <v>10000</v>
+      </c>
+      <c r="G4">
         <v>54</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>13700</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>2437.5</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
         <v>0.15</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>0.9</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>7.4</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>0.9</v>
       </c>
-      <c r="M4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" t="s">
         <v>48</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>4</v>
       </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="R4">
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="U4">
         <v>0.2</v>
       </c>
-      <c r="S4" s="1">
+      <c r="V4" s="1">
         <v>43521.791666666664</v>
       </c>
-      <c r="T4" s="1">
+      <c r="W4" s="1">
         <v>43524.291666666664</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
         <v>49</v>
       </c>
-      <c r="V4" t="s">
+      <c r="Y4" t="s">
         <v>50</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AA4" t="s">
         <v>51</v>
       </c>
-      <c r="Y4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD4" t="s">
         <v>53</v>
       </c>
-      <c r="AB4">
+      <c r="AE4">
         <v>9</v>
       </c>
-      <c r="AC4">
+      <c r="AF4">
         <v>0.8</v>
       </c>
-      <c r="AD4">
+      <c r="AG4">
         <v>0</v>
       </c>
-      <c r="AF4">
-        <v>1</v>
-      </c>
-      <c r="AG4">
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
         <v>5</v>
       </c>
-      <c r="AH4">
+      <c r="AK4">
         <v>6</v>
       </c>
-      <c r="AJ4">
+      <c r="AM4">
         <v>10</v>
       </c>
-      <c r="AK4">
+      <c r="AN4">
         <v>2</v>
       </c>
-      <c r="AL4">
+      <c r="AO4">
         <v>10</v>
       </c>
-      <c r="AM4">
+      <c r="AP4">
         <v>15</v>
       </c>
-      <c r="AN4">
+      <c r="AQ4">
         <v>21</v>
       </c>
-      <c r="AO4">
+      <c r="AR4">
         <v>2000</v>
       </c>
-      <c r="AP4">
+      <c r="AS4">
         <v>2000</v>
       </c>
-      <c r="AQ4">
-        <v>1</v>
-      </c>
-      <c r="AR4">
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
         <v>40</v>
       </c>
-      <c r="AS4">
+      <c r="AV4">
         <v>120</v>
       </c>
-      <c r="AT4">
+      <c r="AW4">
         <v>40</v>
       </c>
-      <c r="AU4">
+      <c r="AX4">
         <v>0.3</v>
       </c>
-      <c r="AV4">
+      <c r="AY4">
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
       </c>
-      <c r="D5">
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5">
+        <v>10000</v>
+      </c>
+      <c r="G5">
         <v>54</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>13700</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>2437.5</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>0.15</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>0.9</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>7.4</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>0.9</v>
       </c>
-      <c r="M5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" t="s">
         <v>48</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>4</v>
       </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="R5">
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="U5">
         <v>0.2</v>
       </c>
-      <c r="S5" s="1">
+      <c r="V5" s="1">
         <v>43521.791666666664</v>
       </c>
-      <c r="T5" s="1">
+      <c r="W5" s="1">
         <v>43524.291666666664</v>
       </c>
-      <c r="U5" t="s">
+      <c r="X5" t="s">
         <v>49</v>
       </c>
-      <c r="V5" t="s">
+      <c r="Y5" t="s">
         <v>50</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AA5" t="s">
         <v>51</v>
       </c>
-      <c r="Y5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD5" t="s">
         <v>53</v>
       </c>
-      <c r="AB5">
+      <c r="AE5">
         <v>9</v>
       </c>
-      <c r="AC5">
+      <c r="AF5">
         <v>0.8</v>
       </c>
-      <c r="AD5">
-        <v>1</v>
-      </c>
-      <c r="AF5">
-        <v>1</v>
-      </c>
       <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
         <v>5</v>
       </c>
-      <c r="AH5">
+      <c r="AK5">
         <v>6</v>
       </c>
-      <c r="AJ5">
+      <c r="AM5">
         <v>10</v>
       </c>
-      <c r="AK5">
+      <c r="AN5">
         <v>2</v>
       </c>
-      <c r="AL5">
+      <c r="AO5">
         <v>10</v>
       </c>
-      <c r="AM5">
+      <c r="AP5">
         <v>15</v>
       </c>
-      <c r="AN5">
+      <c r="AQ5">
         <v>21</v>
       </c>
-      <c r="AO5">
+      <c r="AR5">
         <v>2000</v>
       </c>
-      <c r="AP5">
+      <c r="AS5">
         <v>2000</v>
       </c>
-      <c r="AQ5">
-        <v>1</v>
-      </c>
-      <c r="AR5">
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
         <v>40</v>
       </c>
-      <c r="AS5">
+      <c r="AV5">
         <v>120</v>
       </c>
-      <c r="AT5">
+      <c r="AW5">
         <v>40</v>
       </c>
-      <c r="AU5">
+      <c r="AX5">
         <v>0.3</v>
       </c>
-      <c r="AV5">
+      <c r="AY5">
         <v>0.16</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>54</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>13700</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>2437.5</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
         <v>0.15</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <v>0.9</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <v>7.4</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>0.9</v>
       </c>
-      <c r="M6" t="s">
-        <v>59</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" t="s">
         <v>48</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <v>4</v>
       </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="R6">
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="U6">
         <v>0.2</v>
       </c>
-      <c r="S6" s="1">
+      <c r="V6" s="1">
         <v>43521.791666666664</v>
       </c>
-      <c r="T6" s="1">
+      <c r="W6" s="1">
         <v>43524.291666666664</v>
       </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
         <v>49</v>
       </c>
-      <c r="V6" t="s">
+      <c r="Y6" t="s">
         <v>50</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AA6" t="s">
         <v>51</v>
       </c>
-      <c r="Y6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD6" t="s">
         <v>56</v>
       </c>
-      <c r="AB6">
+      <c r="AE6">
         <v>9</v>
       </c>
-      <c r="AC6">
+      <c r="AF6">
         <v>0.8</v>
       </c>
-      <c r="AD6">
+      <c r="AG6">
         <v>0</v>
       </c>
-      <c r="AF6">
-        <v>1</v>
-      </c>
-      <c r="AG6">
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
         <v>5</v>
       </c>
-      <c r="AH6">
+      <c r="AK6">
         <v>6</v>
       </c>
-      <c r="AJ6">
+      <c r="AM6">
         <v>10</v>
       </c>
-      <c r="AK6">
+      <c r="AN6">
         <v>2</v>
       </c>
-      <c r="AL6">
+      <c r="AO6">
         <v>10</v>
       </c>
-      <c r="AM6">
+      <c r="AP6">
         <v>15</v>
       </c>
-      <c r="AN6">
+      <c r="AQ6">
         <v>21</v>
       </c>
-      <c r="AO6">
+      <c r="AR6">
         <v>2000</v>
       </c>
-      <c r="AP6">
+      <c r="AS6">
         <v>2000</v>
       </c>
-      <c r="AQ6">
-        <v>1</v>
-      </c>
-      <c r="AR6">
+      <c r="AT6">
+        <v>1</v>
+      </c>
+      <c r="AU6">
         <v>40</v>
       </c>
-      <c r="AS6">
+      <c r="AV6">
         <v>120</v>
       </c>
-      <c r="AT6">
+      <c r="AW6">
         <v>40</v>
       </c>
-      <c r="AU6">
+      <c r="AX6">
         <v>0.3</v>
       </c>
-      <c r="AV6">
+      <c r="AY6">
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>54</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>13700</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>2437.5</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
         <v>0.15</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <v>0.9</v>
       </c>
-      <c r="J7">
+      <c r="M7">
         <v>7.4</v>
       </c>
-      <c r="K7">
+      <c r="N7">
         <v>0.9</v>
       </c>
-      <c r="M7" t="s">
-        <v>59</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" t="s">
         <v>48</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <v>4</v>
       </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="R7">
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="U7">
         <v>0.2</v>
       </c>
-      <c r="S7" s="1">
+      <c r="V7" s="1">
         <v>43521.791666666664</v>
       </c>
-      <c r="T7" s="1">
+      <c r="W7" s="1">
         <v>43524.291666666664</v>
       </c>
-      <c r="U7" t="s">
+      <c r="X7" t="s">
         <v>49</v>
       </c>
-      <c r="V7" t="s">
+      <c r="Y7" t="s">
         <v>50</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AA7" t="s">
         <v>51</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AB7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE7">
+        <v>9</v>
+      </c>
+      <c r="AF7">
+        <v>0.8</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>5</v>
+      </c>
+      <c r="AK7">
+        <v>6</v>
+      </c>
+      <c r="AM7">
+        <v>10</v>
+      </c>
+      <c r="AN7">
+        <v>2</v>
+      </c>
+      <c r="AO7">
+        <v>10</v>
+      </c>
+      <c r="AP7">
+        <v>15</v>
+      </c>
+      <c r="AQ7">
+        <v>21</v>
+      </c>
+      <c r="AR7">
+        <v>2000</v>
+      </c>
+      <c r="AS7">
+        <v>2000</v>
+      </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <v>40</v>
+      </c>
+      <c r="AV7">
+        <v>120</v>
+      </c>
+      <c r="AW7">
+        <v>40</v>
+      </c>
+      <c r="AX7">
+        <v>0.3</v>
+      </c>
+      <c r="AY7">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>54</v>
+      </c>
+      <c r="H8">
+        <v>13700</v>
+      </c>
+      <c r="I8">
+        <v>2437.5</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0.15</v>
+      </c>
+      <c r="L8">
+        <v>0.9</v>
+      </c>
+      <c r="M8">
+        <v>7.4</v>
+      </c>
+      <c r="N8">
+        <v>0.9</v>
+      </c>
+      <c r="P8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>48</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>0.2</v>
+      </c>
+      <c r="V8" s="1">
+        <v>43521.791666666664</v>
+      </c>
+      <c r="W8" s="1">
+        <v>43524.291666666664</v>
+      </c>
+      <c r="X8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB8" t="s">
         <v>55</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AD8" t="s">
         <v>56</v>
       </c>
-      <c r="AB7">
+      <c r="AE8">
         <v>9</v>
       </c>
-      <c r="AC7">
+      <c r="AF8">
         <v>0.8</v>
       </c>
-      <c r="AD7">
-        <v>1</v>
-      </c>
-      <c r="AF7">
-        <v>1</v>
-      </c>
-      <c r="AG7">
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
         <v>5</v>
       </c>
-      <c r="AH7">
+      <c r="AK8">
         <v>6</v>
       </c>
-      <c r="AJ7">
+      <c r="AM8">
         <v>10</v>
       </c>
-      <c r="AK7">
+      <c r="AN8">
         <v>2</v>
       </c>
-      <c r="AL7">
+      <c r="AO8">
         <v>10</v>
       </c>
-      <c r="AM7">
+      <c r="AP8">
         <v>15</v>
       </c>
-      <c r="AN7">
+      <c r="AQ8">
         <v>21</v>
       </c>
-      <c r="AO7">
+      <c r="AR8">
         <v>2000</v>
       </c>
-      <c r="AP7">
+      <c r="AS8">
         <v>2000</v>
       </c>
-      <c r="AQ7">
-        <v>1</v>
-      </c>
-      <c r="AR7">
+      <c r="AT8">
+        <v>1</v>
+      </c>
+      <c r="AU8">
         <v>40</v>
       </c>
-      <c r="AS7">
+      <c r="AV8">
         <v>120</v>
       </c>
-      <c r="AT7">
+      <c r="AW8">
         <v>40</v>
       </c>
-      <c r="AU7">
+      <c r="AX8">
         <v>0.3</v>
       </c>
-      <c r="AV7">
+      <c r="AY8">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>54</v>
+      </c>
+      <c r="H9">
+        <v>13700</v>
+      </c>
+      <c r="I9">
+        <v>2437.5</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0.15</v>
+      </c>
+      <c r="L9">
+        <v>0.9</v>
+      </c>
+      <c r="M9">
+        <v>7.4</v>
+      </c>
+      <c r="N9">
+        <v>0.9</v>
+      </c>
+      <c r="P9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>0.2</v>
+      </c>
+      <c r="V9" s="1">
+        <v>43521.791666666664</v>
+      </c>
+      <c r="W9" s="1">
+        <v>43524.291666666664</v>
+      </c>
+      <c r="X9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE9">
+        <v>9</v>
+      </c>
+      <c r="AF9">
+        <v>0.8</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <v>5</v>
+      </c>
+      <c r="AK9">
+        <v>6</v>
+      </c>
+      <c r="AM9">
+        <v>10</v>
+      </c>
+      <c r="AN9">
+        <v>2</v>
+      </c>
+      <c r="AO9">
+        <v>10</v>
+      </c>
+      <c r="AP9">
+        <v>15</v>
+      </c>
+      <c r="AQ9">
+        <v>21</v>
+      </c>
+      <c r="AR9">
+        <v>2000</v>
+      </c>
+      <c r="AS9">
+        <v>2000</v>
+      </c>
+      <c r="AT9">
+        <v>1</v>
+      </c>
+      <c r="AU9">
+        <v>40</v>
+      </c>
+      <c r="AV9">
+        <v>120</v>
+      </c>
+      <c r="AW9">
+        <v>40</v>
+      </c>
+      <c r="AX9">
+        <v>0.3</v>
+      </c>
+      <c r="AY9">
         <v>0.16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:AV7">
+  <conditionalFormatting sqref="AC4:AY4 AC6:AY6 A3:B7 Q3:AY3 D3:O5 Q7:AY7 Q6:T6 D6:P7 Q5:AY5 Q4:T4 P2:P5">
+    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
+      <formula>A2&lt;&gt;A1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:W9">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThan">
+      <formula>V2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2:W2">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>V2&lt;&gt;V1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V4:W4">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+      <formula>V4&lt;&gt;V3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V6:W6">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>V6&lt;&gt;V5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC8:AY8 A8:B9 Q9:AY9 Q8:T8 D8:P9">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>A8&lt;&gt;A7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V8:W8">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>A3&lt;&gt;A2</formula>
+      <formula>V8&lt;&gt;V7</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inputs/InputSchedule.xlsx
+++ b/Inputs/InputSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/ah17992_bristol_ac_uk/Documents/DP5/Shared/DP5_modelling/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:4000b_{DEB44F97-88D2-433A-B317-5E3E680ACB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69EBE43E-59F8-480A-B057-375AA2A6573F}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:4000b_{DEB44F97-88D2-433A-B317-5E3E680ACB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{591FA145-5550-486A-B65C-22F97F4BB062}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1167,7 +1167,7 @@
   <dimension ref="A1:AY9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="AT14" sqref="AT14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Inputs/InputSchedule.xlsx
+++ b/Inputs/InputSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/ah17992_bristol_ac_uk/Documents/DP5/Shared/DP5_modelling/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:4000b_{DEB44F97-88D2-433A-B317-5E3E680ACB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{591FA145-5550-486A-B65C-22F97F4BB062}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:4000b_{DEB44F97-88D2-433A-B317-5E3E680ACB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A097FA2D-D8D9-42E7-9C22-7D38F7D731F6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="69">
   <si>
     <t>Case</t>
   </si>
@@ -224,25 +224,19 @@
     <t>Cost of Change</t>
   </si>
   <si>
-    <t>Current Household of 5</t>
-  </si>
-  <si>
-    <t>Current Household of 6</t>
-  </si>
-  <si>
-    <t>Current Household of 7</t>
-  </si>
-  <si>
-    <t>Current Household of 8</t>
-  </si>
-  <si>
-    <t>Current Household of 9</t>
-  </si>
-  <si>
     <t>Agile Tariff</t>
   </si>
   <si>
     <t>Fourth</t>
+  </si>
+  <si>
+    <t>Carbon Intensity</t>
+  </si>
+  <si>
+    <t>CombinedCO2.csv</t>
+  </si>
+  <si>
+    <t>Battery Carbon</t>
   </si>
 </sst>
 </file>
@@ -1164,54 +1158,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY9"/>
+  <dimension ref="A1:BA9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AT14" sqref="AT14"/>
+      <selection activeCell="AW20" sqref="AW20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="37" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="43" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="5" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="45" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="5" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="4" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="4" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="5" customFormat="1" ht="121.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" s="5" customFormat="1" ht="122.25" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>59</v>
       </c>
@@ -1233,140 +1230,146 @@
       <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AY1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1383,121 +1386,127 @@
         <v>54</v>
       </c>
       <c r="H2">
+        <v>59000</v>
+      </c>
+      <c r="I2">
         <v>13700</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2437.5</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
       <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.15</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.9</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>7.4</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>0.9</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>48</v>
       </c>
-      <c r="R2">
+      <c r="S2" t="s">
+        <v>67</v>
+      </c>
+      <c r="T2">
         <v>4</v>
       </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
       <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="W2">
         <v>0.2</v>
       </c>
-      <c r="V2" s="1">
+      <c r="X2" s="1">
         <v>43521.791666666664</v>
       </c>
-      <c r="W2" s="1">
+      <c r="Y2" s="1">
         <v>43524.291666666664</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>50</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>51</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>55</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>56</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <v>9</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
         <v>0.8</v>
       </c>
-      <c r="AG2">
+      <c r="AI2">
         <v>0</v>
       </c>
-      <c r="AI2">
-        <v>1</v>
-      </c>
-      <c r="AJ2">
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
         <v>5</v>
       </c>
-      <c r="AK2">
+      <c r="AM2">
         <v>6</v>
-      </c>
-      <c r="AM2">
-        <v>10</v>
-      </c>
-      <c r="AN2">
-        <v>2</v>
       </c>
       <c r="AO2">
         <v>10</v>
       </c>
       <c r="AP2">
+        <v>2</v>
+      </c>
+      <c r="AQ2">
+        <v>10</v>
+      </c>
+      <c r="AR2">
         <v>15</v>
       </c>
-      <c r="AQ2">
+      <c r="AS2">
         <v>21</v>
       </c>
-      <c r="AR2">
+      <c r="AT2">
         <v>2000</v>
       </c>
-      <c r="AS2">
+      <c r="AU2">
         <v>2000</v>
       </c>
-      <c r="AT2">
-        <v>1</v>
-      </c>
-      <c r="AU2">
-        <v>40</v>
-      </c>
       <c r="AV2">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="AW2">
         <v>40</v>
       </c>
       <c r="AX2">
+        <v>120</v>
+      </c>
+      <c r="AY2">
+        <v>40</v>
+      </c>
+      <c r="AZ2">
         <v>0.3</v>
       </c>
-      <c r="AY2">
+      <c r="BA2">
         <v>0.16</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1505,7 +1514,7 @@
         <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1514,121 +1523,127 @@
         <v>54</v>
       </c>
       <c r="H3">
+        <v>59000</v>
+      </c>
+      <c r="I3">
         <v>13700</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2437.5</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
       <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>0.15</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.9</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>7.4</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.9</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>58</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>48</v>
       </c>
-      <c r="R3">
+      <c r="S3" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3">
         <v>4</v>
       </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
       <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="W3">
         <v>0.2</v>
       </c>
-      <c r="V3" s="1">
+      <c r="X3" s="1">
         <v>43521.791666666664</v>
       </c>
-      <c r="W3" s="1">
+      <c r="Y3" s="1">
         <v>43524.291666666664</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Z3" t="s">
         <v>49</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AA3" t="s">
         <v>50</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AC3" t="s">
         <v>51</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
         <v>52</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AF3" t="s">
         <v>56</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <v>9</v>
       </c>
-      <c r="AF3">
+      <c r="AH3">
         <v>0.8</v>
       </c>
-      <c r="AG3">
-        <v>1</v>
-      </c>
       <c r="AI3">
-        <v>1</v>
-      </c>
-      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
         <v>5</v>
       </c>
-      <c r="AK3">
+      <c r="AM3">
         <v>6</v>
-      </c>
-      <c r="AM3">
-        <v>10</v>
-      </c>
-      <c r="AN3">
-        <v>2</v>
       </c>
       <c r="AO3">
         <v>10</v>
       </c>
       <c r="AP3">
+        <v>2</v>
+      </c>
+      <c r="AQ3">
+        <v>10</v>
+      </c>
+      <c r="AR3">
         <v>15</v>
       </c>
-      <c r="AQ3">
+      <c r="AS3">
         <v>21</v>
       </c>
-      <c r="AR3">
+      <c r="AT3">
         <v>2000</v>
       </c>
-      <c r="AS3">
+      <c r="AU3">
         <v>2000</v>
       </c>
-      <c r="AT3">
-        <v>1</v>
-      </c>
-      <c r="AU3">
-        <v>40</v>
-      </c>
       <c r="AV3">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="AW3">
         <v>40</v>
       </c>
       <c r="AX3">
+        <v>120</v>
+      </c>
+      <c r="AY3">
+        <v>40</v>
+      </c>
+      <c r="AZ3">
         <v>0.3</v>
       </c>
-      <c r="AY3">
+      <c r="BA3">
         <v>0.16</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1636,7 +1651,7 @@
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E4">
         <v>10000</v>
@@ -1645,121 +1660,127 @@
         <v>54</v>
       </c>
       <c r="H4">
+        <v>59000</v>
+      </c>
+      <c r="I4">
         <v>13700</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2437.5</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
       <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.15</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.9</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>7.4</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>0.9</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>58</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>48</v>
       </c>
-      <c r="R4">
+      <c r="S4" t="s">
+        <v>67</v>
+      </c>
+      <c r="T4">
         <v>4</v>
       </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
       <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="W4">
         <v>0.2</v>
       </c>
-      <c r="V4" s="1">
+      <c r="X4" s="1">
         <v>43521.791666666664</v>
       </c>
-      <c r="W4" s="1">
+      <c r="Y4" s="1">
         <v>43524.291666666664</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Z4" t="s">
         <v>49</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AA4" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AC4" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>55</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AF4" t="s">
         <v>53</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
         <v>9</v>
       </c>
-      <c r="AF4">
+      <c r="AH4">
         <v>0.8</v>
       </c>
-      <c r="AG4">
+      <c r="AI4">
         <v>0</v>
       </c>
-      <c r="AI4">
-        <v>1</v>
-      </c>
-      <c r="AJ4">
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
         <v>5</v>
       </c>
-      <c r="AK4">
+      <c r="AM4">
         <v>6</v>
-      </c>
-      <c r="AM4">
-        <v>10</v>
-      </c>
-      <c r="AN4">
-        <v>2</v>
       </c>
       <c r="AO4">
         <v>10</v>
       </c>
       <c r="AP4">
+        <v>2</v>
+      </c>
+      <c r="AQ4">
+        <v>10</v>
+      </c>
+      <c r="AR4">
         <v>15</v>
       </c>
-      <c r="AQ4">
+      <c r="AS4">
         <v>21</v>
       </c>
-      <c r="AR4">
+      <c r="AT4">
         <v>2000</v>
       </c>
-      <c r="AS4">
+      <c r="AU4">
         <v>2000</v>
       </c>
-      <c r="AT4">
-        <v>1</v>
-      </c>
-      <c r="AU4">
-        <v>40</v>
-      </c>
       <c r="AV4">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="AW4">
         <v>40</v>
       </c>
       <c r="AX4">
+        <v>120</v>
+      </c>
+      <c r="AY4">
+        <v>40</v>
+      </c>
+      <c r="AZ4">
         <v>0.3</v>
       </c>
-      <c r="AY4">
+      <c r="BA4">
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1767,7 +1788,7 @@
         <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>10000</v>
@@ -1776,129 +1797,135 @@
         <v>54</v>
       </c>
       <c r="H5">
+        <v>59000</v>
+      </c>
+      <c r="I5">
         <v>13700</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2437.5</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
       <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.15</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.9</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>7.4</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>0.9</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>48</v>
       </c>
-      <c r="R5">
+      <c r="S5" t="s">
+        <v>67</v>
+      </c>
+      <c r="T5">
         <v>4</v>
       </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
       <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="W5">
         <v>0.2</v>
       </c>
-      <c r="V5" s="1">
+      <c r="X5" s="1">
         <v>43521.791666666664</v>
       </c>
-      <c r="W5" s="1">
+      <c r="Y5" s="1">
         <v>43524.291666666664</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Z5" t="s">
         <v>49</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="AA5" t="s">
         <v>50</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AC5" t="s">
         <v>51</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
         <v>52</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AF5" t="s">
         <v>53</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <v>9</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <v>0.8</v>
       </c>
-      <c r="AG5">
-        <v>1</v>
-      </c>
       <c r="AI5">
-        <v>1</v>
-      </c>
-      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
         <v>5</v>
       </c>
-      <c r="AK5">
+      <c r="AM5">
         <v>6</v>
-      </c>
-      <c r="AM5">
-        <v>10</v>
-      </c>
-      <c r="AN5">
-        <v>2</v>
       </c>
       <c r="AO5">
         <v>10</v>
       </c>
       <c r="AP5">
+        <v>2</v>
+      </c>
+      <c r="AQ5">
+        <v>10</v>
+      </c>
+      <c r="AR5">
         <v>15</v>
       </c>
-      <c r="AQ5">
+      <c r="AS5">
         <v>21</v>
       </c>
-      <c r="AR5">
+      <c r="AT5">
         <v>2000</v>
       </c>
-      <c r="AS5">
+      <c r="AU5">
         <v>2000</v>
       </c>
-      <c r="AT5">
-        <v>1</v>
-      </c>
-      <c r="AU5">
-        <v>40</v>
-      </c>
       <c r="AV5">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="AW5">
         <v>40</v>
       </c>
       <c r="AX5">
+        <v>120</v>
+      </c>
+      <c r="AY5">
+        <v>40</v>
+      </c>
+      <c r="AZ5">
         <v>0.3</v>
       </c>
-      <c r="AY5">
+      <c r="BA5">
         <v>0.16</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1907,129 +1934,135 @@
         <v>54</v>
       </c>
       <c r="H6">
+        <v>59000</v>
+      </c>
+      <c r="I6">
         <v>13700</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2437.5</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
       <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.15</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.9</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>7.4</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>0.9</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>47</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>48</v>
       </c>
-      <c r="R6">
+      <c r="S6" t="s">
+        <v>67</v>
+      </c>
+      <c r="T6">
         <v>4</v>
       </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
       <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="W6">
         <v>0.2</v>
       </c>
-      <c r="V6" s="1">
+      <c r="X6" s="1">
         <v>43521.791666666664</v>
       </c>
-      <c r="W6" s="1">
+      <c r="Y6" s="1">
         <v>43524.291666666664</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Z6" t="s">
         <v>49</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="AA6" t="s">
         <v>50</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AC6" t="s">
         <v>51</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AD6" t="s">
         <v>55</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AF6" t="s">
         <v>56</v>
       </c>
-      <c r="AE6">
+      <c r="AG6">
         <v>9</v>
       </c>
-      <c r="AF6">
+      <c r="AH6">
         <v>0.8</v>
       </c>
-      <c r="AG6">
+      <c r="AI6">
         <v>0</v>
       </c>
-      <c r="AI6">
-        <v>1</v>
-      </c>
-      <c r="AJ6">
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
         <v>5</v>
       </c>
-      <c r="AK6">
+      <c r="AM6">
         <v>6</v>
-      </c>
-      <c r="AM6">
-        <v>10</v>
-      </c>
-      <c r="AN6">
-        <v>2</v>
       </c>
       <c r="AO6">
         <v>10</v>
       </c>
       <c r="AP6">
+        <v>2</v>
+      </c>
+      <c r="AQ6">
+        <v>10</v>
+      </c>
+      <c r="AR6">
         <v>15</v>
       </c>
-      <c r="AQ6">
+      <c r="AS6">
         <v>21</v>
       </c>
-      <c r="AR6">
+      <c r="AT6">
         <v>2000</v>
       </c>
-      <c r="AS6">
+      <c r="AU6">
         <v>2000</v>
       </c>
-      <c r="AT6">
-        <v>1</v>
-      </c>
-      <c r="AU6">
-        <v>40</v>
-      </c>
       <c r="AV6">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="AW6">
         <v>40</v>
       </c>
       <c r="AX6">
+        <v>120</v>
+      </c>
+      <c r="AY6">
+        <v>40</v>
+      </c>
+      <c r="AZ6">
         <v>0.3</v>
       </c>
-      <c r="AY6">
+      <c r="BA6">
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2038,129 +2071,135 @@
         <v>54</v>
       </c>
       <c r="H7">
+        <v>59000</v>
+      </c>
+      <c r="I7">
         <v>13700</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>2437.5</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
       <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>0.15</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.9</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>7.4</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0.9</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>47</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>48</v>
       </c>
-      <c r="R7">
+      <c r="S7" t="s">
+        <v>67</v>
+      </c>
+      <c r="T7">
         <v>4</v>
       </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
       <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="W7">
         <v>0.2</v>
       </c>
-      <c r="V7" s="1">
+      <c r="X7" s="1">
         <v>43521.791666666664</v>
       </c>
-      <c r="W7" s="1">
+      <c r="Y7" s="1">
         <v>43524.291666666664</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Z7" t="s">
         <v>49</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AA7" t="s">
         <v>50</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AC7" t="s">
         <v>51</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AD7" t="s">
         <v>52</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AF7" t="s">
         <v>56</v>
       </c>
-      <c r="AE7">
+      <c r="AG7">
         <v>9</v>
       </c>
-      <c r="AF7">
+      <c r="AH7">
         <v>0.8</v>
       </c>
-      <c r="AG7">
-        <v>1</v>
-      </c>
       <c r="AI7">
-        <v>1</v>
-      </c>
-      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
         <v>5</v>
       </c>
-      <c r="AK7">
+      <c r="AM7">
         <v>6</v>
-      </c>
-      <c r="AM7">
-        <v>10</v>
-      </c>
-      <c r="AN7">
-        <v>2</v>
       </c>
       <c r="AO7">
         <v>10</v>
       </c>
       <c r="AP7">
+        <v>2</v>
+      </c>
+      <c r="AQ7">
+        <v>10</v>
+      </c>
+      <c r="AR7">
         <v>15</v>
       </c>
-      <c r="AQ7">
+      <c r="AS7">
         <v>21</v>
       </c>
-      <c r="AR7">
+      <c r="AT7">
         <v>2000</v>
       </c>
-      <c r="AS7">
+      <c r="AU7">
         <v>2000</v>
       </c>
-      <c r="AT7">
-        <v>1</v>
-      </c>
-      <c r="AU7">
-        <v>40</v>
-      </c>
       <c r="AV7">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="AW7">
         <v>40</v>
       </c>
       <c r="AX7">
+        <v>120</v>
+      </c>
+      <c r="AY7">
+        <v>40</v>
+      </c>
+      <c r="AZ7">
         <v>0.3</v>
       </c>
-      <c r="AY7">
+      <c r="BA7">
         <v>0.16</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2169,129 +2208,135 @@
         <v>54</v>
       </c>
       <c r="H8">
+        <v>59000</v>
+      </c>
+      <c r="I8">
         <v>13700</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>2437.5</v>
       </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
       <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0.15</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.9</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>7.4</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>0.9</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>48</v>
       </c>
-      <c r="R8">
+      <c r="S8" t="s">
+        <v>67</v>
+      </c>
+      <c r="T8">
         <v>4</v>
       </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
       <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="W8">
         <v>0.2</v>
       </c>
-      <c r="V8" s="1">
+      <c r="X8" s="1">
         <v>43521.791666666664</v>
       </c>
-      <c r="W8" s="1">
+      <c r="Y8" s="1">
         <v>43524.291666666664</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Z8" t="s">
         <v>49</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="AA8" t="s">
         <v>50</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AC8" t="s">
         <v>51</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AD8" t="s">
         <v>55</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AF8" t="s">
         <v>56</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <v>9</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <v>0.8</v>
       </c>
-      <c r="AG8">
+      <c r="AI8">
         <v>0</v>
       </c>
-      <c r="AI8">
-        <v>1</v>
-      </c>
-      <c r="AJ8">
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
         <v>5</v>
       </c>
-      <c r="AK8">
+      <c r="AM8">
         <v>6</v>
-      </c>
-      <c r="AM8">
-        <v>10</v>
-      </c>
-      <c r="AN8">
-        <v>2</v>
       </c>
       <c r="AO8">
         <v>10</v>
       </c>
       <c r="AP8">
+        <v>2</v>
+      </c>
+      <c r="AQ8">
+        <v>10</v>
+      </c>
+      <c r="AR8">
         <v>15</v>
       </c>
-      <c r="AQ8">
+      <c r="AS8">
         <v>21</v>
       </c>
-      <c r="AR8">
+      <c r="AT8">
         <v>2000</v>
       </c>
-      <c r="AS8">
+      <c r="AU8">
         <v>2000</v>
       </c>
-      <c r="AT8">
-        <v>1</v>
-      </c>
-      <c r="AU8">
-        <v>40</v>
-      </c>
       <c r="AV8">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="AW8">
         <v>40</v>
       </c>
       <c r="AX8">
+        <v>120</v>
+      </c>
+      <c r="AY8">
+        <v>40</v>
+      </c>
+      <c r="AZ8">
         <v>0.3</v>
       </c>
-      <c r="AY8">
+      <c r="BA8">
         <v>0.16</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2300,155 +2345,161 @@
         <v>54</v>
       </c>
       <c r="H9">
+        <v>59000</v>
+      </c>
+      <c r="I9">
         <v>13700</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>2437.5</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
       <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>0.15</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.9</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>7.4</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>0.9</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>47</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>48</v>
       </c>
-      <c r="R9">
+      <c r="S9" t="s">
+        <v>67</v>
+      </c>
+      <c r="T9">
         <v>4</v>
       </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
       <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="W9">
         <v>0.2</v>
       </c>
-      <c r="V9" s="1">
+      <c r="X9" s="1">
         <v>43521.791666666664</v>
       </c>
-      <c r="W9" s="1">
+      <c r="Y9" s="1">
         <v>43524.291666666664</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Z9" t="s">
         <v>49</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="AA9" t="s">
         <v>50</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AC9" t="s">
         <v>51</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AD9" t="s">
         <v>52</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AF9" t="s">
         <v>56</v>
       </c>
-      <c r="AE9">
+      <c r="AG9">
         <v>9</v>
       </c>
-      <c r="AF9">
+      <c r="AH9">
         <v>0.8</v>
       </c>
-      <c r="AG9">
-        <v>1</v>
-      </c>
       <c r="AI9">
-        <v>1</v>
-      </c>
-      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
         <v>5</v>
       </c>
-      <c r="AK9">
+      <c r="AM9">
         <v>6</v>
-      </c>
-      <c r="AM9">
-        <v>10</v>
-      </c>
-      <c r="AN9">
-        <v>2</v>
       </c>
       <c r="AO9">
         <v>10</v>
       </c>
       <c r="AP9">
+        <v>2</v>
+      </c>
+      <c r="AQ9">
+        <v>10</v>
+      </c>
+      <c r="AR9">
         <v>15</v>
       </c>
-      <c r="AQ9">
+      <c r="AS9">
         <v>21</v>
       </c>
-      <c r="AR9">
+      <c r="AT9">
         <v>2000</v>
       </c>
-      <c r="AS9">
+      <c r="AU9">
         <v>2000</v>
       </c>
-      <c r="AT9">
-        <v>1</v>
-      </c>
-      <c r="AU9">
-        <v>40</v>
-      </c>
       <c r="AV9">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="AW9">
         <v>40</v>
       </c>
       <c r="AX9">
+        <v>120</v>
+      </c>
+      <c r="AY9">
+        <v>40</v>
+      </c>
+      <c r="AZ9">
         <v>0.3</v>
       </c>
-      <c r="AY9">
+      <c r="BA9">
         <v>0.16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AC4:AY4 AC6:AY6 A3:B7 Q3:AY3 D3:O5 Q7:AY7 Q6:T6 D6:P7 Q5:AY5 Q4:T4 P2:P5">
+  <conditionalFormatting sqref="AE4:BA4 AE6:BA6 A3:B7 R3:R7 Q2:Q5 T4:V4 T5:BA5 T6:V6 T7:BA7 T3:BA3 I3:P5 D3:G7 I6:Q7">
     <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
       <formula>A2&lt;&gt;A1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W9">
+  <conditionalFormatting sqref="Y2:Y9">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThan">
-      <formula>V2</formula>
+      <formula>X2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:W2">
+  <conditionalFormatting sqref="X2:Y2">
     <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>V2&lt;&gt;V1</formula>
+      <formula>X2&lt;&gt;X1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V4:W4">
+  <conditionalFormatting sqref="X4:Y4">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
-      <formula>V4&lt;&gt;V3</formula>
+      <formula>X4&lt;&gt;X3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V6:W6">
+  <conditionalFormatting sqref="X6:Y6">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>V6&lt;&gt;V5</formula>
+      <formula>X6&lt;&gt;X5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC8:AY8 A8:B9 Q9:AY9 Q8:T8 D8:P9">
+  <conditionalFormatting sqref="AE8:BA8 A8:B9 T8:V8 T9:BA9 D8:G9 I8:R9">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>A8&lt;&gt;A7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V8:W8">
+  <conditionalFormatting sqref="X8:Y8">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>V8&lt;&gt;V7</formula>
+      <formula>X8&lt;&gt;X7</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inputs/InputSchedule.xlsx
+++ b/Inputs/InputSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/ah17992_bristol_ac_uk/Documents/DP5/Shared/DP5_modelling/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:4000b_{DEB44F97-88D2-433A-B317-5E3E680ACB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A097FA2D-D8D9-42E7-9C22-7D38F7D731F6}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="13_ncr:4000b_{DEB44F97-88D2-433A-B317-5E3E680ACB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64C45221-58EC-4031-B4B3-F2CB8157DE0E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="71">
   <si>
     <t>Case</t>
   </si>
@@ -236,7 +236,13 @@
     <t>CombinedCO2.csv</t>
   </si>
   <si>
-    <t>Battery Carbon</t>
+    <t>Battery Carbon per kWh</t>
+  </si>
+  <si>
+    <t>Battery Motivation</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
@@ -1158,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA9"/>
+  <dimension ref="A1:BB9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AW20" sqref="AW20"/>
+      <selection activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,24 +1197,25 @@
     <col min="28" max="28" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="45" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="5" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="4" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="4" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.28515625" customWidth="1"/>
+    <col min="32" max="32" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="46" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="5" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="4" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="4" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="5" customFormat="1" ht="122.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" s="5" customFormat="1" ht="122.25" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>59</v>
       </c>
@@ -1299,77 +1306,80 @@
       <c r="AD1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AY1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BB1" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1410,7 +1420,7 @@
         <v>0.9</v>
       </c>
       <c r="Q2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="R2" t="s">
         <v>48</v>
@@ -1443,70 +1453,73 @@
         <v>51</v>
       </c>
       <c r="AD2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG2" t="s">
         <v>56</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>9</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>0.8</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>0</v>
       </c>
-      <c r="AK2">
-        <v>1</v>
-      </c>
       <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>5</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>6</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>10</v>
       </c>
-      <c r="AP2">
+      <c r="AQ2">
         <v>2</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <v>10</v>
       </c>
-      <c r="AR2">
+      <c r="AS2">
         <v>15</v>
       </c>
-      <c r="AS2">
+      <c r="AT2">
         <v>21</v>
-      </c>
-      <c r="AT2">
-        <v>2000</v>
       </c>
       <c r="AU2">
         <v>2000</v>
       </c>
       <c r="AV2">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="AW2">
+        <v>1</v>
+      </c>
+      <c r="AX2">
         <v>40</v>
       </c>
-      <c r="AX2">
+      <c r="AY2">
         <v>120</v>
       </c>
-      <c r="AY2">
+      <c r="AZ2">
         <v>40</v>
       </c>
-      <c r="AZ2">
+      <c r="BA2">
         <v>0.3</v>
       </c>
-      <c r="BA2">
+      <c r="BB2">
         <v>0.16</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1582,68 +1595,71 @@
       <c r="AD3" t="s">
         <v>52</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AE3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG3" t="s">
         <v>56</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>9</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.8</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0</v>
       </c>
-      <c r="AK3">
-        <v>1</v>
-      </c>
       <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>5</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>6</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>10</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <v>2</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>10</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>15</v>
       </c>
-      <c r="AS3">
+      <c r="AT3">
         <v>21</v>
-      </c>
-      <c r="AT3">
-        <v>2000</v>
       </c>
       <c r="AU3">
         <v>2000</v>
       </c>
       <c r="AV3">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="AW3">
+        <v>1</v>
+      </c>
+      <c r="AX3">
         <v>40</v>
       </c>
-      <c r="AX3">
+      <c r="AY3">
         <v>120</v>
       </c>
-      <c r="AY3">
+      <c r="AZ3">
         <v>40</v>
       </c>
-      <c r="AZ3">
+      <c r="BA3">
         <v>0.3</v>
       </c>
-      <c r="BA3">
+      <c r="BB3">
         <v>0.16</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1719,68 +1735,71 @@
       <c r="AD4" t="s">
         <v>55</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AE4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG4" t="s">
         <v>53</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>9</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>0.8</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>0</v>
       </c>
-      <c r="AK4">
-        <v>1</v>
-      </c>
       <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>5</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>6</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>10</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <v>2</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <v>10</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <v>15</v>
       </c>
-      <c r="AS4">
+      <c r="AT4">
         <v>21</v>
-      </c>
-      <c r="AT4">
-        <v>2000</v>
       </c>
       <c r="AU4">
         <v>2000</v>
       </c>
       <c r="AV4">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="AW4">
+        <v>1</v>
+      </c>
+      <c r="AX4">
         <v>40</v>
       </c>
-      <c r="AX4">
+      <c r="AY4">
         <v>120</v>
       </c>
-      <c r="AY4">
+      <c r="AZ4">
         <v>40</v>
       </c>
-      <c r="AZ4">
+      <c r="BA4">
         <v>0.3</v>
       </c>
-      <c r="BA4">
+      <c r="BB4">
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1856,68 +1875,71 @@
       <c r="AD5" t="s">
         <v>52</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AE5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG5" t="s">
         <v>53</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>9</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>0.8</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>0</v>
       </c>
-      <c r="AK5">
-        <v>1</v>
-      </c>
       <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>5</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>6</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>10</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <v>2</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>10</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <v>15</v>
       </c>
-      <c r="AS5">
+      <c r="AT5">
         <v>21</v>
-      </c>
-      <c r="AT5">
-        <v>2000</v>
       </c>
       <c r="AU5">
         <v>2000</v>
       </c>
       <c r="AV5">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="AW5">
+        <v>1</v>
+      </c>
+      <c r="AX5">
         <v>40</v>
       </c>
-      <c r="AX5">
+      <c r="AY5">
         <v>120</v>
       </c>
-      <c r="AY5">
+      <c r="AZ5">
         <v>40</v>
       </c>
-      <c r="AZ5">
+      <c r="BA5">
         <v>0.3</v>
       </c>
-      <c r="BA5">
+      <c r="BB5">
         <v>0.16</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1993,68 +2015,71 @@
       <c r="AD6" t="s">
         <v>55</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AE6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG6" t="s">
         <v>56</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>9</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>0.8</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>0</v>
       </c>
-      <c r="AK6">
-        <v>1</v>
-      </c>
       <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>5</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>6</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>10</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <v>2</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>10</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <v>15</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <v>21</v>
-      </c>
-      <c r="AT6">
-        <v>2000</v>
       </c>
       <c r="AU6">
         <v>2000</v>
       </c>
       <c r="AV6">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="AW6">
+        <v>1</v>
+      </c>
+      <c r="AX6">
         <v>40</v>
       </c>
-      <c r="AX6">
+      <c r="AY6">
         <v>120</v>
       </c>
-      <c r="AY6">
+      <c r="AZ6">
         <v>40</v>
       </c>
-      <c r="AZ6">
+      <c r="BA6">
         <v>0.3</v>
       </c>
-      <c r="BA6">
+      <c r="BB6">
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2130,68 +2155,71 @@
       <c r="AD7" t="s">
         <v>52</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AE7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG7" t="s">
         <v>56</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>9</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>0.8</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>0</v>
       </c>
-      <c r="AK7">
-        <v>1</v>
-      </c>
       <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>5</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>6</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <v>10</v>
       </c>
-      <c r="AP7">
+      <c r="AQ7">
         <v>2</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>10</v>
       </c>
-      <c r="AR7">
+      <c r="AS7">
         <v>15</v>
       </c>
-      <c r="AS7">
+      <c r="AT7">
         <v>21</v>
-      </c>
-      <c r="AT7">
-        <v>2000</v>
       </c>
       <c r="AU7">
         <v>2000</v>
       </c>
       <c r="AV7">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="AW7">
+        <v>1</v>
+      </c>
+      <c r="AX7">
         <v>40</v>
       </c>
-      <c r="AX7">
+      <c r="AY7">
         <v>120</v>
       </c>
-      <c r="AY7">
+      <c r="AZ7">
         <v>40</v>
       </c>
-      <c r="AZ7">
+      <c r="BA7">
         <v>0.3</v>
       </c>
-      <c r="BA7">
+      <c r="BB7">
         <v>0.16</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2267,68 +2295,71 @@
       <c r="AD8" t="s">
         <v>55</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AE8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG8" t="s">
         <v>56</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>9</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>0.8</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>0</v>
       </c>
-      <c r="AK8">
-        <v>1</v>
-      </c>
       <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>5</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>6</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>10</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <v>2</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>10</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <v>15</v>
       </c>
-      <c r="AS8">
+      <c r="AT8">
         <v>21</v>
-      </c>
-      <c r="AT8">
-        <v>2000</v>
       </c>
       <c r="AU8">
         <v>2000</v>
       </c>
       <c r="AV8">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="AW8">
+        <v>1</v>
+      </c>
+      <c r="AX8">
         <v>40</v>
       </c>
-      <c r="AX8">
+      <c r="AY8">
         <v>120</v>
       </c>
-      <c r="AY8">
+      <c r="AZ8">
         <v>40</v>
       </c>
-      <c r="AZ8">
+      <c r="BA8">
         <v>0.3</v>
       </c>
-      <c r="BA8">
+      <c r="BB8">
         <v>0.16</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2404,70 +2435,73 @@
       <c r="AD9" t="s">
         <v>52</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AE9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG9" t="s">
         <v>56</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>9</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>0.8</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>0</v>
       </c>
-      <c r="AK9">
-        <v>1</v>
-      </c>
       <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>5</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>6</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <v>10</v>
       </c>
-      <c r="AP9">
+      <c r="AQ9">
         <v>2</v>
       </c>
-      <c r="AQ9">
+      <c r="AR9">
         <v>10</v>
       </c>
-      <c r="AR9">
+      <c r="AS9">
         <v>15</v>
       </c>
-      <c r="AS9">
+      <c r="AT9">
         <v>21</v>
-      </c>
-      <c r="AT9">
-        <v>2000</v>
       </c>
       <c r="AU9">
         <v>2000</v>
       </c>
       <c r="AV9">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="AW9">
+        <v>1</v>
+      </c>
+      <c r="AX9">
         <v>40</v>
       </c>
-      <c r="AX9">
+      <c r="AY9">
         <v>120</v>
       </c>
-      <c r="AY9">
+      <c r="AZ9">
         <v>40</v>
       </c>
-      <c r="AZ9">
+      <c r="BA9">
         <v>0.3</v>
       </c>
-      <c r="BA9">
+      <c r="BB9">
         <v>0.16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AE4:BA4 AE6:BA6 A3:B7 R3:R7 Q2:Q5 T4:V4 T5:BA5 T6:V6 T7:BA7 T3:BA3 I3:P5 D3:G7 I6:Q7">
+  <conditionalFormatting sqref="A3:B7 R3:R7 T4:V4 T5:AD5 T6:V6 T7:AD7 T3:AD3 I3:P5 D3:G7 I6:Q7 Q2:Q5 AF3:BB7">
     <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
       <formula>A2&lt;&gt;A1</formula>
     </cfRule>
@@ -2492,7 +2526,7 @@
       <formula>X6&lt;&gt;X5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE8:BA8 A8:B9 T8:V8 T9:BA9 D8:G9 I8:R9">
+  <conditionalFormatting sqref="A8:B9 T8:V8 T9:AD9 D8:G9 I8:R9 AF8:BB9">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>A8&lt;&gt;A7</formula>
     </cfRule>

--- a/Inputs/InputSchedule.xlsx
+++ b/Inputs/InputSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/ah17992_bristol_ac_uk/Documents/DP5/Shared/DP5_modelling/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="13_ncr:4000b_{DEB44F97-88D2-433A-B317-5E3E680ACB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64C45221-58EC-4031-B4B3-F2CB8157DE0E}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:4000b_{DEB44F97-88D2-433A-B317-5E3E680ACB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEAC2463-B634-4C5A-88FC-3D1919C76820}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="72">
   <si>
     <t>Case</t>
   </si>
@@ -194,55 +194,58 @@
     <t>Electric</t>
   </si>
   <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Electric Heater</t>
+  </si>
+  <si>
+    <t>Fixed22Tariff.csv</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Current Household of 4</t>
+  </si>
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>Cost of Change</t>
+  </si>
+  <si>
+    <t>Agile Tariff</t>
+  </si>
+  <si>
+    <t>Carbon Intensity</t>
+  </si>
+  <si>
+    <t>CombinedCO2.csv</t>
+  </si>
+  <si>
+    <t>Battery Carbon per kWh</t>
+  </si>
+  <si>
+    <t>Battery Motivation</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Carbon</t>
+  </si>
+  <si>
+    <t>Carbon Motivated</t>
+  </si>
+  <si>
     <t>Datum</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t>Electric Heater</t>
-  </si>
-  <si>
-    <t>Fixed22Tariff.csv</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Current Household of 4</t>
-  </si>
-  <si>
-    <t>Costs</t>
-  </si>
-  <si>
-    <t>Cost of Change</t>
-  </si>
-  <si>
-    <t>Agile Tariff</t>
-  </si>
-  <si>
-    <t>Fourth</t>
-  </si>
-  <si>
-    <t>Carbon Intensity</t>
-  </si>
-  <si>
-    <t>CombinedCO2.csv</t>
-  </si>
-  <si>
-    <t>Battery Carbon per kWh</t>
-  </si>
-  <si>
-    <t>Battery Motivation</t>
-  </si>
-  <si>
-    <t>Price</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1170,7 @@
   <dimension ref="A1:BB9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH5" sqref="AH5"/>
+      <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,19 +1220,19 @@
   <sheetData>
     <row r="1" spans="1:54" s="5" customFormat="1" ht="122.25" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -1238,7 +1241,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>3</v>
@@ -1271,7 +1274,7 @@
         <v>12</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>13</v>
@@ -1307,7 +1310,7 @@
         <v>23</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AF1" s="3" t="s">
         <v>24</v>
@@ -1384,10 +1387,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1426,7 +1429,7 @@
         <v>48</v>
       </c>
       <c r="S2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T2">
         <v>4</v>
@@ -1456,10 +1459,10 @@
         <v>52</v>
       </c>
       <c r="AE2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AG2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH2">
         <v>9</v>
@@ -1468,7 +1471,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2">
         <v>1</v>
@@ -1524,10 +1527,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1560,13 +1563,13 @@
         <v>0.9</v>
       </c>
       <c r="Q3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="R3" t="s">
         <v>48</v>
       </c>
       <c r="S3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T3">
         <v>4</v>
@@ -1596,10 +1599,10 @@
         <v>52</v>
       </c>
       <c r="AE3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AG3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH3">
         <v>9</v>
@@ -1608,7 +1611,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3">
         <v>1</v>
@@ -1664,13 +1667,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>54</v>
@@ -1700,13 +1703,13 @@
         <v>0.9</v>
       </c>
       <c r="Q4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="R4" t="s">
         <v>48</v>
       </c>
       <c r="S4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T4">
         <v>4</v>
@@ -1733,13 +1736,13 @@
         <v>51</v>
       </c>
       <c r="AD4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG4" t="s">
         <v>55</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>53</v>
       </c>
       <c r="AH4">
         <v>9</v>
@@ -1748,7 +1751,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4">
         <v>1</v>
@@ -1804,13 +1807,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>54</v>
@@ -1840,13 +1843,13 @@
         <v>0.9</v>
       </c>
       <c r="Q5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="R5" t="s">
         <v>48</v>
       </c>
       <c r="S5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T5">
         <v>4</v>
@@ -1876,10 +1879,10 @@
         <v>52</v>
       </c>
       <c r="AE5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AG5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AH5">
         <v>9</v>
@@ -1888,7 +1891,7 @@
         <v>0.8</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5">
         <v>1</v>
@@ -1944,13 +1947,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G6">
         <v>54</v>
@@ -1980,13 +1983,13 @@
         <v>0.9</v>
       </c>
       <c r="Q6" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="R6" t="s">
         <v>48</v>
       </c>
       <c r="S6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T6">
         <v>4</v>
@@ -2013,13 +2016,13 @@
         <v>51</v>
       </c>
       <c r="AD6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AG6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AH6">
         <v>9</v>
@@ -2084,13 +2087,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G7">
         <v>54</v>
@@ -2120,13 +2123,13 @@
         <v>0.9</v>
       </c>
       <c r="Q7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="R7" t="s">
         <v>48</v>
       </c>
       <c r="S7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T7">
         <v>4</v>
@@ -2156,10 +2159,10 @@
         <v>52</v>
       </c>
       <c r="AE7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AG7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AH7">
         <v>9</v>
@@ -2221,13 +2224,13 @@
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2266,7 +2269,7 @@
         <v>48</v>
       </c>
       <c r="S8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T8">
         <v>4</v>
@@ -2293,13 +2296,13 @@
         <v>51</v>
       </c>
       <c r="AD8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG8" t="s">
         <v>55</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>56</v>
       </c>
       <c r="AH8">
         <v>9</v>
@@ -2361,13 +2364,13 @@
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2406,7 +2409,7 @@
         <v>48</v>
       </c>
       <c r="S9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T9">
         <v>4</v>
@@ -2436,10 +2439,10 @@
         <v>52</v>
       </c>
       <c r="AE9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AG9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH9">
         <v>9</v>
@@ -2501,39 +2504,39 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:B7 R3:R7 T4:V4 T5:AD5 T6:V6 T7:AD7 T3:AD3 I3:P5 D3:G7 I6:Q7 Q2:Q5 AF3:BB7">
-    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
+  <conditionalFormatting sqref="T7:AD7 T8:V8 T9:AD9 A7:B9 D7:G9 AF7:BB9 I7:R9 Q2:Q5">
+    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
       <formula>A2&lt;&gt;A1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y9">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="lessThan">
       <formula>X2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:Y2">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
       <formula>X2&lt;&gt;X1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X4:Y4">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
-      <formula>X4&lt;&gt;X3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X6:Y6">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>X6&lt;&gt;X5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:B9 T8:V8 T9:AD9 D8:G9 I8:R9 AF8:BB9">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>A8&lt;&gt;A7</formula>
+  <conditionalFormatting sqref="X6:Y6 A6:B6 D6:G6 AF6:BB6 I6:R6 T6:V6">
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+      <formula>A6&lt;&gt;A3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X8:Y8">
+    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
+      <formula>X8&lt;&gt;X7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3:Y3 X5:Y5">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>X3&lt;&gt;X2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X4:Y4">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>X8&lt;&gt;X7</formula>
+      <formula>X4&lt;&gt;X3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inputs/InputSchedule.xlsx
+++ b/Inputs/InputSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/ah17992_bristol_ac_uk/Documents/DP5/Shared/DP5_modelling/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:4000b_{DEB44F97-88D2-433A-B317-5E3E680ACB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEAC2463-B634-4C5A-88FC-3D1919C76820}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="13_ncr:4000b_{DEB44F97-88D2-433A-B317-5E3E680ACB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60C7C4F0-62CA-4D60-93E8-0BFBF29EFF4D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="84">
   <si>
     <t>Case</t>
   </si>
@@ -246,6 +246,42 @@
   </si>
   <si>
     <t>Datum</t>
+  </si>
+  <si>
+    <t>Journey Inputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle Type </t>
+  </si>
+  <si>
+    <t>Vehicle Range</t>
+  </si>
+  <si>
+    <t>Vehicle Mass</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heating </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driving Style </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regen Braking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPG </t>
+  </si>
+  <si>
+    <t>p per litre</t>
+  </si>
+  <si>
+    <t>Temperature</t>
   </si>
 </sst>
 </file>
@@ -1167,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB9"/>
+  <dimension ref="A1:BN9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI3" sqref="AI3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="BI12" sqref="BI12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,9 +1252,11 @@
     <col min="52" max="52" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="4" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="5" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="66" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="5" customFormat="1" ht="122.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" s="5" customFormat="1" ht="122.25" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>58</v>
       </c>
@@ -1381,8 +1419,44 @@
       <c r="BB1" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="BC1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BI1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="BJ1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="BM1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN1" s="5" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1521,8 +1595,11 @@
       <c r="BB2">
         <v>0.16</v>
       </c>
+      <c r="BD2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1662,7 +1739,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1802,7 +1879,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1942,7 +2019,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1965,7 +2042,7 @@
         <v>13700</v>
       </c>
       <c r="J6">
-        <v>2437.5</v>
+        <v>5</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -2082,7 +2159,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2222,7 +2299,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2362,7 +2439,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>

--- a/Inputs/InputSchedule.xlsx
+++ b/Inputs/InputSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/ah17992_bristol_ac_uk/Documents/DP5/Shared/DP5_modelling/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="13_ncr:4000b_{DEB44F97-88D2-433A-B317-5E3E680ACB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60C7C4F0-62CA-4D60-93E8-0BFBF29EFF4D}"/>
+  <xr:revisionPtr revIDLastSave="248" documentId="13_ncr:4000b_{DEB44F97-88D2-433A-B317-5E3E680ACB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7C9A038-2E74-4CC8-ABF2-CED9820DC927}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="88">
   <si>
     <t>Case</t>
   </si>
@@ -282,6 +282,18 @@
   </si>
   <si>
     <t>Temperature</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Reserve Destination</t>
+  </si>
+  <si>
+    <t>Journey Destination</t>
+  </si>
+  <si>
+    <t>Journey Arrival Time</t>
   </si>
 </sst>
 </file>
@@ -840,7 +852,66 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1203,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BN9"/>
+  <dimension ref="A1:BR15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="BI12" sqref="BI12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1233,30 +1304,31 @@
     <col min="24" max="25" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.28515625" customWidth="1"/>
+    <col min="28" max="31" width="3.7109375" customWidth="1"/>
     <col min="32" max="32" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.28515625" customWidth="1"/>
+    <col min="36" max="36" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="46" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="5" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="4" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="4" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="5" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="66" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="44" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="50" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="5" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="4" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="4" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="70" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="5" customFormat="1" ht="122.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:70" s="5" customFormat="1" ht="122.25" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>58</v>
       </c>
@@ -1329,7 +1401,7 @@
       <c r="X1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Z1" s="5" t="s">
@@ -1338,125 +1410,137 @@
       <c r="AA1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AY1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="BB1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BE1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BF1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BI1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BK1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BL1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BM1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BN1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BO1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BP1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="BM1" s="5" t="s">
+      <c r="BQ1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="BN1" s="5" t="s">
+      <c r="BR1" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1515,10 +1599,10 @@
         <v>0.2</v>
       </c>
       <c r="X2" s="1">
-        <v>43521.791666666664</v>
+        <v>44248.791666666664</v>
       </c>
       <c r="Y2" s="1">
-        <v>43524.291666666664</v>
+        <v>44255.291666666664</v>
       </c>
       <c r="Z2" t="s">
         <v>49</v>
@@ -1526,80 +1610,80 @@
       <c r="AA2" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG2" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI2" t="s">
         <v>68</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>55</v>
       </c>
-      <c r="AH2">
+      <c r="AL2">
         <v>9</v>
       </c>
-      <c r="AI2">
+      <c r="AM2">
         <v>0.8</v>
       </c>
-      <c r="AJ2">
-        <v>1</v>
-      </c>
-      <c r="AL2">
-        <v>1</v>
-      </c>
-      <c r="AM2">
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
         <v>5</v>
       </c>
-      <c r="AN2">
+      <c r="AR2">
         <v>6</v>
       </c>
-      <c r="AP2">
+      <c r="AT2">
         <v>10</v>
       </c>
-      <c r="AQ2">
+      <c r="AU2">
         <v>2</v>
       </c>
-      <c r="AR2">
+      <c r="AV2">
         <v>10</v>
       </c>
-      <c r="AS2">
+      <c r="AW2">
         <v>15</v>
       </c>
-      <c r="AT2">
+      <c r="AX2">
         <v>21</v>
       </c>
-      <c r="AU2">
+      <c r="AY2">
         <v>2000</v>
       </c>
-      <c r="AV2">
+      <c r="AZ2">
         <v>2000</v>
       </c>
-      <c r="AW2">
-        <v>1</v>
-      </c>
-      <c r="AX2">
+      <c r="BA2">
+        <v>1</v>
+      </c>
+      <c r="BB2">
         <v>40</v>
       </c>
-      <c r="AY2">
+      <c r="BC2">
         <v>120</v>
       </c>
-      <c r="AZ2">
+      <c r="BD2">
         <v>40</v>
       </c>
-      <c r="BA2">
+      <c r="BE2">
         <v>0.3</v>
       </c>
-      <c r="BB2">
+      <c r="BF2">
         <v>0.16</v>
       </c>
-      <c r="BD2">
+      <c r="BH2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1661,7 +1745,7 @@
         <v>43521.791666666664</v>
       </c>
       <c r="Y3" s="1">
-        <v>43524.291666666664</v>
+        <v>43522.291666666664</v>
       </c>
       <c r="Z3" t="s">
         <v>49</v>
@@ -1669,82 +1753,82 @@
       <c r="AA3" t="s">
         <v>50</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AG3" t="s">
         <v>51</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AH3" t="s">
         <v>52</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AI3" t="s">
         <v>68</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AK3" t="s">
         <v>55</v>
       </c>
-      <c r="AH3">
+      <c r="AL3">
         <v>9</v>
       </c>
-      <c r="AI3">
+      <c r="AM3">
         <v>0.8</v>
       </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
-      <c r="AL3">
-        <v>1</v>
-      </c>
-      <c r="AM3">
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
         <v>5</v>
       </c>
-      <c r="AN3">
+      <c r="AR3">
         <v>6</v>
       </c>
-      <c r="AP3">
+      <c r="AT3">
         <v>10</v>
       </c>
-      <c r="AQ3">
+      <c r="AU3">
         <v>2</v>
       </c>
-      <c r="AR3">
+      <c r="AV3">
         <v>10</v>
       </c>
-      <c r="AS3">
+      <c r="AW3">
         <v>15</v>
       </c>
-      <c r="AT3">
+      <c r="AX3">
         <v>21</v>
       </c>
-      <c r="AU3">
+      <c r="AY3">
         <v>2000</v>
       </c>
-      <c r="AV3">
+      <c r="AZ3">
         <v>2000</v>
       </c>
-      <c r="AW3">
-        <v>1</v>
-      </c>
-      <c r="AX3">
+      <c r="BA3">
+        <v>1</v>
+      </c>
+      <c r="BB3">
         <v>40</v>
       </c>
-      <c r="AY3">
+      <c r="BC3">
         <v>120</v>
       </c>
-      <c r="AZ3">
+      <c r="BD3">
         <v>40</v>
       </c>
-      <c r="BA3">
+      <c r="BE3">
         <v>0.3</v>
       </c>
-      <c r="BB3">
+      <c r="BF3">
         <v>0.16</v>
       </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -1798,10 +1882,10 @@
         <v>0.2</v>
       </c>
       <c r="X4" s="1">
-        <v>43521.791666666664</v>
+        <v>43520.791666666664</v>
       </c>
       <c r="Y4" s="1">
-        <v>43524.291666666664</v>
+        <v>43521.291666666664</v>
       </c>
       <c r="Z4" t="s">
         <v>49</v>
@@ -1809,82 +1893,82 @@
       <c r="AA4" t="s">
         <v>50</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AG4" t="s">
         <v>51</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AH4" t="s">
         <v>52</v>
       </c>
-      <c r="AE4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG4" t="s">
+      <c r="AI4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK4" t="s">
         <v>55</v>
       </c>
-      <c r="AH4">
+      <c r="AL4">
         <v>9</v>
       </c>
-      <c r="AI4">
+      <c r="AM4">
         <v>0.8</v>
       </c>
-      <c r="AJ4">
-        <v>1</v>
-      </c>
-      <c r="AL4">
-        <v>1</v>
-      </c>
-      <c r="AM4">
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
         <v>5</v>
       </c>
-      <c r="AN4">
+      <c r="AR4">
         <v>6</v>
       </c>
-      <c r="AP4">
+      <c r="AT4">
         <v>10</v>
       </c>
-      <c r="AQ4">
+      <c r="AU4">
         <v>2</v>
       </c>
-      <c r="AR4">
+      <c r="AV4">
         <v>10</v>
       </c>
-      <c r="AS4">
+      <c r="AW4">
         <v>15</v>
       </c>
-      <c r="AT4">
+      <c r="AX4">
         <v>21</v>
       </c>
-      <c r="AU4">
+      <c r="AY4">
         <v>2000</v>
       </c>
-      <c r="AV4">
+      <c r="AZ4">
         <v>2000</v>
       </c>
-      <c r="AW4">
-        <v>1</v>
-      </c>
-      <c r="AX4">
+      <c r="BA4">
+        <v>1</v>
+      </c>
+      <c r="BB4">
         <v>40</v>
       </c>
-      <c r="AY4">
+      <c r="BC4">
         <v>120</v>
       </c>
-      <c r="AZ4">
+      <c r="BD4">
         <v>40</v>
       </c>
-      <c r="BA4">
+      <c r="BE4">
         <v>0.3</v>
       </c>
-      <c r="BB4">
+      <c r="BF4">
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
@@ -1938,10 +2022,10 @@
         <v>0.2</v>
       </c>
       <c r="X5" s="1">
-        <v>43521.791666666664</v>
+        <v>43519.791666666664</v>
       </c>
       <c r="Y5" s="1">
-        <v>43524.291666666664</v>
+        <v>43520.291666666664</v>
       </c>
       <c r="Z5" t="s">
         <v>49</v>
@@ -1949,88 +2033,88 @@
       <c r="AA5" t="s">
         <v>50</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AG5" t="s">
         <v>51</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AH5" t="s">
         <v>52</v>
       </c>
-      <c r="AE5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG5" t="s">
+      <c r="AI5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK5" t="s">
         <v>55</v>
       </c>
-      <c r="AH5">
+      <c r="AL5">
         <v>9</v>
       </c>
-      <c r="AI5">
+      <c r="AM5">
         <v>0.8</v>
       </c>
-      <c r="AJ5">
-        <v>1</v>
-      </c>
-      <c r="AL5">
-        <v>1</v>
-      </c>
-      <c r="AM5">
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
         <v>5</v>
       </c>
-      <c r="AN5">
+      <c r="AR5">
         <v>6</v>
       </c>
-      <c r="AP5">
+      <c r="AT5">
         <v>10</v>
       </c>
-      <c r="AQ5">
+      <c r="AU5">
         <v>2</v>
       </c>
-      <c r="AR5">
+      <c r="AV5">
         <v>10</v>
       </c>
-      <c r="AS5">
+      <c r="AW5">
         <v>15</v>
       </c>
-      <c r="AT5">
+      <c r="AX5">
         <v>21</v>
       </c>
-      <c r="AU5">
+      <c r="AY5">
         <v>2000</v>
       </c>
-      <c r="AV5">
+      <c r="AZ5">
         <v>2000</v>
       </c>
-      <c r="AW5">
-        <v>1</v>
-      </c>
-      <c r="AX5">
+      <c r="BA5">
+        <v>1</v>
+      </c>
+      <c r="BB5">
         <v>40</v>
       </c>
-      <c r="AY5">
+      <c r="BC5">
         <v>120</v>
       </c>
-      <c r="AZ5">
+      <c r="BD5">
         <v>40</v>
       </c>
-      <c r="BA5">
+      <c r="BE5">
         <v>0.3</v>
       </c>
-      <c r="BB5">
+      <c r="BF5">
         <v>0.16</v>
       </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
       </c>
       <c r="E6">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>54</v>
@@ -2042,7 +2126,7 @@
         <v>13700</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>2437.5</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -2060,7 +2144,7 @@
         <v>0.9</v>
       </c>
       <c r="Q6" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="R6" t="s">
         <v>48</v>
@@ -2078,10 +2162,10 @@
         <v>0.2</v>
       </c>
       <c r="X6" s="1">
-        <v>43521.791666666664</v>
+        <v>43518.791666666664</v>
       </c>
       <c r="Y6" s="1">
-        <v>43524.291666666664</v>
+        <v>43519.291666666664</v>
       </c>
       <c r="Z6" t="s">
         <v>49</v>
@@ -2089,88 +2173,88 @@
       <c r="AA6" t="s">
         <v>50</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AG6" t="s">
         <v>51</v>
       </c>
-      <c r="AD6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI6" t="s">
         <v>68</v>
       </c>
-      <c r="AG6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH6">
+      <c r="AK6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL6">
         <v>9</v>
       </c>
-      <c r="AI6">
+      <c r="AM6">
         <v>0.8</v>
       </c>
-      <c r="AJ6">
+      <c r="AN6">
         <v>0</v>
       </c>
-      <c r="AL6">
-        <v>1</v>
-      </c>
-      <c r="AM6">
+      <c r="AP6">
+        <v>1</v>
+      </c>
+      <c r="AQ6">
         <v>5</v>
       </c>
-      <c r="AN6">
+      <c r="AR6">
         <v>6</v>
       </c>
-      <c r="AP6">
+      <c r="AT6">
         <v>10</v>
       </c>
-      <c r="AQ6">
+      <c r="AU6">
         <v>2</v>
       </c>
-      <c r="AR6">
+      <c r="AV6">
         <v>10</v>
       </c>
-      <c r="AS6">
+      <c r="AW6">
         <v>15</v>
       </c>
-      <c r="AT6">
+      <c r="AX6">
         <v>21</v>
       </c>
-      <c r="AU6">
+      <c r="AY6">
         <v>2000</v>
       </c>
-      <c r="AV6">
+      <c r="AZ6">
         <v>2000</v>
       </c>
-      <c r="AW6">
-        <v>1</v>
-      </c>
-      <c r="AX6">
+      <c r="BA6">
+        <v>1</v>
+      </c>
+      <c r="BB6">
         <v>40</v>
       </c>
-      <c r="AY6">
+      <c r="BC6">
         <v>120</v>
       </c>
-      <c r="AZ6">
+      <c r="BD6">
         <v>40</v>
       </c>
-      <c r="BA6">
+      <c r="BE6">
         <v>0.3</v>
       </c>
-      <c r="BB6">
+      <c r="BF6">
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
         <v>60</v>
       </c>
       <c r="E7">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>54</v>
@@ -2200,7 +2284,7 @@
         <v>0.9</v>
       </c>
       <c r="Q7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="R7" t="s">
         <v>48</v>
@@ -2218,10 +2302,10 @@
         <v>0.2</v>
       </c>
       <c r="X7" s="1">
-        <v>43521.791666666664</v>
+        <v>44248.791666666664</v>
       </c>
       <c r="Y7" s="1">
-        <v>43524.291666666664</v>
+        <v>44255.291666666664</v>
       </c>
       <c r="Z7" t="s">
         <v>49</v>
@@ -2229,82 +2313,85 @@
       <c r="AA7" t="s">
         <v>50</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AG7" t="s">
         <v>51</v>
       </c>
-      <c r="AD7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH7">
+      <c r="AH7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL7">
         <v>9</v>
       </c>
-      <c r="AI7">
+      <c r="AM7">
         <v>0.8</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>1</v>
-      </c>
-      <c r="AM7">
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AP7">
+        <v>1</v>
+      </c>
+      <c r="AQ7">
         <v>5</v>
       </c>
-      <c r="AN7">
+      <c r="AR7">
         <v>6</v>
       </c>
-      <c r="AP7">
+      <c r="AT7">
         <v>10</v>
       </c>
-      <c r="AQ7">
+      <c r="AU7">
         <v>2</v>
       </c>
-      <c r="AR7">
+      <c r="AV7">
         <v>10</v>
       </c>
-      <c r="AS7">
+      <c r="AW7">
         <v>15</v>
       </c>
-      <c r="AT7">
+      <c r="AX7">
         <v>21</v>
       </c>
-      <c r="AU7">
+      <c r="AY7">
         <v>2000</v>
       </c>
-      <c r="AV7">
+      <c r="AZ7">
         <v>2000</v>
       </c>
-      <c r="AW7">
-        <v>1</v>
-      </c>
-      <c r="AX7">
+      <c r="BA7">
+        <v>1</v>
+      </c>
+      <c r="BB7">
         <v>40</v>
       </c>
-      <c r="AY7">
+      <c r="BC7">
         <v>120</v>
       </c>
-      <c r="AZ7">
+      <c r="BD7">
         <v>40</v>
       </c>
-      <c r="BA7">
+      <c r="BE7">
         <v>0.3</v>
       </c>
-      <c r="BB7">
+      <c r="BF7">
         <v>0.16</v>
       </c>
+      <c r="BH7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
         <v>60</v>
@@ -2361,7 +2448,7 @@
         <v>43521.791666666664</v>
       </c>
       <c r="Y8" s="1">
-        <v>43524.291666666664</v>
+        <v>43522.291666666664</v>
       </c>
       <c r="Z8" t="s">
         <v>49</v>
@@ -2369,82 +2456,82 @@
       <c r="AA8" t="s">
         <v>50</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AG8" t="s">
         <v>51</v>
       </c>
-      <c r="AD8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK8" t="s">
         <v>55</v>
       </c>
-      <c r="AH8">
+      <c r="AL8">
         <v>9</v>
       </c>
-      <c r="AI8">
+      <c r="AM8">
         <v>0.8</v>
       </c>
-      <c r="AJ8">
+      <c r="AN8">
         <v>0</v>
       </c>
-      <c r="AL8">
-        <v>1</v>
-      </c>
-      <c r="AM8">
+      <c r="AP8">
+        <v>1</v>
+      </c>
+      <c r="AQ8">
         <v>5</v>
       </c>
-      <c r="AN8">
+      <c r="AR8">
         <v>6</v>
       </c>
-      <c r="AP8">
+      <c r="AT8">
         <v>10</v>
       </c>
-      <c r="AQ8">
+      <c r="AU8">
         <v>2</v>
       </c>
-      <c r="AR8">
+      <c r="AV8">
         <v>10</v>
       </c>
-      <c r="AS8">
+      <c r="AW8">
         <v>15</v>
       </c>
-      <c r="AT8">
+      <c r="AX8">
         <v>21</v>
       </c>
-      <c r="AU8">
+      <c r="AY8">
         <v>2000</v>
       </c>
-      <c r="AV8">
+      <c r="AZ8">
         <v>2000</v>
       </c>
-      <c r="AW8">
-        <v>1</v>
-      </c>
-      <c r="AX8">
+      <c r="BA8">
+        <v>1</v>
+      </c>
+      <c r="BB8">
         <v>40</v>
       </c>
-      <c r="AY8">
+      <c r="BC8">
         <v>120</v>
       </c>
-      <c r="AZ8">
+      <c r="BD8">
         <v>40</v>
       </c>
-      <c r="BA8">
+      <c r="BE8">
         <v>0.3</v>
       </c>
-      <c r="BB8">
+      <c r="BF8">
         <v>0.16</v>
       </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
         <v>60</v>
@@ -2498,10 +2585,10 @@
         <v>0.2</v>
       </c>
       <c r="X9" s="1">
-        <v>43521.791666666664</v>
+        <v>43520.791666666664</v>
       </c>
       <c r="Y9" s="1">
-        <v>43524.291666666664</v>
+        <v>43521.291666666664</v>
       </c>
       <c r="Z9" t="s">
         <v>49</v>
@@ -2509,111 +2596,956 @@
       <c r="AA9" t="s">
         <v>50</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AG9" t="s">
         <v>51</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AH9" t="s">
         <v>52</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AI9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL9">
+        <v>9</v>
+      </c>
+      <c r="AM9">
+        <v>0.8</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>1</v>
+      </c>
+      <c r="AQ9">
+        <v>5</v>
+      </c>
+      <c r="AR9">
+        <v>6</v>
+      </c>
+      <c r="AT9">
+        <v>10</v>
+      </c>
+      <c r="AU9">
+        <v>2</v>
+      </c>
+      <c r="AV9">
+        <v>10</v>
+      </c>
+      <c r="AW9">
+        <v>15</v>
+      </c>
+      <c r="AX9">
+        <v>21</v>
+      </c>
+      <c r="AY9">
+        <v>2000</v>
+      </c>
+      <c r="AZ9">
+        <v>2000</v>
+      </c>
+      <c r="BA9">
+        <v>1</v>
+      </c>
+      <c r="BB9">
+        <v>40</v>
+      </c>
+      <c r="BC9">
+        <v>120</v>
+      </c>
+      <c r="BD9">
+        <v>40</v>
+      </c>
+      <c r="BE9">
+        <v>0.3</v>
+      </c>
+      <c r="BF9">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>54</v>
+      </c>
+      <c r="H10">
+        <v>59000</v>
+      </c>
+      <c r="I10">
+        <v>13700</v>
+      </c>
+      <c r="J10">
+        <v>2437.5</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.15</v>
+      </c>
+      <c r="M10">
+        <v>0.9</v>
+      </c>
+      <c r="N10">
+        <v>7.4</v>
+      </c>
+      <c r="O10">
+        <v>0.9</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>47</v>
+      </c>
+      <c r="R10" t="s">
+        <v>48</v>
+      </c>
+      <c r="S10" t="s">
+        <v>65</v>
+      </c>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>0.2</v>
+      </c>
+      <c r="X10" s="1">
+        <v>43519.791666666664</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>43520.291666666664</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL10">
+        <v>9</v>
+      </c>
+      <c r="AM10">
+        <v>0.8</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AQ10">
+        <v>5</v>
+      </c>
+      <c r="AR10">
+        <v>6</v>
+      </c>
+      <c r="AT10">
+        <v>10</v>
+      </c>
+      <c r="AU10">
+        <v>2</v>
+      </c>
+      <c r="AV10">
+        <v>10</v>
+      </c>
+      <c r="AW10">
+        <v>15</v>
+      </c>
+      <c r="AX10">
+        <v>21</v>
+      </c>
+      <c r="AY10">
+        <v>2000</v>
+      </c>
+      <c r="AZ10">
+        <v>2000</v>
+      </c>
+      <c r="BA10">
+        <v>1</v>
+      </c>
+      <c r="BB10">
+        <v>40</v>
+      </c>
+      <c r="BC10">
+        <v>120</v>
+      </c>
+      <c r="BD10">
+        <v>40</v>
+      </c>
+      <c r="BE10">
+        <v>0.3</v>
+      </c>
+      <c r="BF10">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>54</v>
+      </c>
+      <c r="H11">
+        <v>59000</v>
+      </c>
+      <c r="I11">
+        <v>13700</v>
+      </c>
+      <c r="J11">
+        <v>2437.5</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.15</v>
+      </c>
+      <c r="M11">
+        <v>0.9</v>
+      </c>
+      <c r="N11">
+        <v>7.4</v>
+      </c>
+      <c r="O11">
+        <v>0.9</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>47</v>
+      </c>
+      <c r="R11" t="s">
+        <v>48</v>
+      </c>
+      <c r="S11" t="s">
+        <v>65</v>
+      </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>0.2</v>
+      </c>
+      <c r="X11" s="1">
+        <v>43518.791666666664</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>43519.291666666664</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL11">
+        <v>9</v>
+      </c>
+      <c r="AM11">
+        <v>0.8</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+      <c r="AQ11">
+        <v>5</v>
+      </c>
+      <c r="AR11">
+        <v>6</v>
+      </c>
+      <c r="AT11">
+        <v>10</v>
+      </c>
+      <c r="AU11">
+        <v>2</v>
+      </c>
+      <c r="AV11">
+        <v>10</v>
+      </c>
+      <c r="AW11">
+        <v>15</v>
+      </c>
+      <c r="AX11">
+        <v>21</v>
+      </c>
+      <c r="AY11">
+        <v>2000</v>
+      </c>
+      <c r="AZ11">
+        <v>2000</v>
+      </c>
+      <c r="BA11">
+        <v>1</v>
+      </c>
+      <c r="BB11">
+        <v>40</v>
+      </c>
+      <c r="BC11">
+        <v>120</v>
+      </c>
+      <c r="BD11">
+        <v>40</v>
+      </c>
+      <c r="BE11">
+        <v>0.3</v>
+      </c>
+      <c r="BF11">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12">
+        <v>10000</v>
+      </c>
+      <c r="G12">
+        <v>54</v>
+      </c>
+      <c r="H12">
+        <v>59000</v>
+      </c>
+      <c r="I12">
+        <v>13700</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.15</v>
+      </c>
+      <c r="M12">
+        <v>0.9</v>
+      </c>
+      <c r="N12">
+        <v>7.4</v>
+      </c>
+      <c r="O12">
+        <v>0.9</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>57</v>
+      </c>
+      <c r="R12" t="s">
+        <v>48</v>
+      </c>
+      <c r="S12" t="s">
+        <v>65</v>
+      </c>
+      <c r="T12">
+        <v>4</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>0.2</v>
+      </c>
+      <c r="X12" s="1">
+        <v>43521.791666666664</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>43524.291666666664</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI12" t="s">
         <v>68</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AK12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL12">
+        <v>9</v>
+      </c>
+      <c r="AM12">
+        <v>0.8</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>1</v>
+      </c>
+      <c r="AQ12">
+        <v>5</v>
+      </c>
+      <c r="AR12">
+        <v>6</v>
+      </c>
+      <c r="AT12">
+        <v>10</v>
+      </c>
+      <c r="AU12">
+        <v>2</v>
+      </c>
+      <c r="AV12">
+        <v>10</v>
+      </c>
+      <c r="AW12">
+        <v>15</v>
+      </c>
+      <c r="AX12">
+        <v>21</v>
+      </c>
+      <c r="AY12">
+        <v>2000</v>
+      </c>
+      <c r="AZ12">
+        <v>2000</v>
+      </c>
+      <c r="BA12">
+        <v>1</v>
+      </c>
+      <c r="BB12">
+        <v>40</v>
+      </c>
+      <c r="BC12">
+        <v>120</v>
+      </c>
+      <c r="BD12">
+        <v>40</v>
+      </c>
+      <c r="BE12">
+        <v>0.3</v>
+      </c>
+      <c r="BF12">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13">
+        <v>10000</v>
+      </c>
+      <c r="G13">
+        <v>54</v>
+      </c>
+      <c r="H13">
+        <v>59000</v>
+      </c>
+      <c r="I13">
+        <v>13700</v>
+      </c>
+      <c r="J13">
+        <v>2437.5</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.15</v>
+      </c>
+      <c r="M13">
+        <v>0.9</v>
+      </c>
+      <c r="N13">
+        <v>7.4</v>
+      </c>
+      <c r="O13">
+        <v>0.9</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R13" t="s">
+        <v>48</v>
+      </c>
+      <c r="S13" t="s">
+        <v>65</v>
+      </c>
+      <c r="T13">
+        <v>4</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>0.2</v>
+      </c>
+      <c r="X13" s="1">
+        <v>43521.791666666664</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>43524.291666666664</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL13">
+        <v>9</v>
+      </c>
+      <c r="AM13">
+        <v>0.8</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>1</v>
+      </c>
+      <c r="AQ13">
+        <v>5</v>
+      </c>
+      <c r="AR13">
+        <v>6</v>
+      </c>
+      <c r="AT13">
+        <v>10</v>
+      </c>
+      <c r="AU13">
+        <v>2</v>
+      </c>
+      <c r="AV13">
+        <v>10</v>
+      </c>
+      <c r="AW13">
+        <v>15</v>
+      </c>
+      <c r="AX13">
+        <v>21</v>
+      </c>
+      <c r="AY13">
+        <v>2000</v>
+      </c>
+      <c r="AZ13">
+        <v>2000</v>
+      </c>
+      <c r="BA13">
+        <v>1</v>
+      </c>
+      <c r="BB13">
+        <v>40</v>
+      </c>
+      <c r="BC13">
+        <v>120</v>
+      </c>
+      <c r="BD13">
+        <v>40</v>
+      </c>
+      <c r="BE13">
+        <v>0.3</v>
+      </c>
+      <c r="BF13">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>54</v>
+      </c>
+      <c r="H14">
+        <v>59000</v>
+      </c>
+      <c r="I14">
+        <v>13700</v>
+      </c>
+      <c r="J14">
+        <v>2437.5</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.15</v>
+      </c>
+      <c r="M14">
+        <v>0.9</v>
+      </c>
+      <c r="N14">
+        <v>7.4</v>
+      </c>
+      <c r="O14">
+        <v>0.9</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>47</v>
+      </c>
+      <c r="R14" t="s">
+        <v>48</v>
+      </c>
+      <c r="S14" t="s">
+        <v>65</v>
+      </c>
+      <c r="T14">
+        <v>4</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>0.2</v>
+      </c>
+      <c r="X14" s="1">
+        <v>43521.791666666664</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>43524.291666666664</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK14" t="s">
         <v>55</v>
       </c>
-      <c r="AH9">
+      <c r="AL14">
         <v>9</v>
       </c>
-      <c r="AI9">
+      <c r="AM14">
         <v>0.8</v>
       </c>
-      <c r="AJ9">
+      <c r="AN14">
         <v>0</v>
       </c>
-      <c r="AL9">
-        <v>1</v>
-      </c>
-      <c r="AM9">
+      <c r="AP14">
+        <v>1</v>
+      </c>
+      <c r="AQ14">
         <v>5</v>
       </c>
-      <c r="AN9">
+      <c r="AR14">
         <v>6</v>
       </c>
-      <c r="AP9">
+      <c r="AT14">
         <v>10</v>
       </c>
-      <c r="AQ9">
+      <c r="AU14">
         <v>2</v>
       </c>
-      <c r="AR9">
+      <c r="AV14">
         <v>10</v>
       </c>
-      <c r="AS9">
+      <c r="AW14">
         <v>15</v>
       </c>
-      <c r="AT9">
+      <c r="AX14">
         <v>21</v>
       </c>
-      <c r="AU9">
+      <c r="AY14">
         <v>2000</v>
       </c>
-      <c r="AV9">
+      <c r="AZ14">
         <v>2000</v>
       </c>
-      <c r="AW9">
-        <v>1</v>
-      </c>
-      <c r="AX9">
+      <c r="BA14">
+        <v>1</v>
+      </c>
+      <c r="BB14">
         <v>40</v>
       </c>
-      <c r="AY9">
+      <c r="BC14">
         <v>120</v>
       </c>
-      <c r="AZ9">
+      <c r="BD14">
         <v>40</v>
       </c>
-      <c r="BA9">
+      <c r="BE14">
         <v>0.3</v>
       </c>
-      <c r="BB9">
+      <c r="BF14">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>54</v>
+      </c>
+      <c r="H15">
+        <v>59000</v>
+      </c>
+      <c r="I15">
+        <v>13700</v>
+      </c>
+      <c r="J15">
+        <v>2437.5</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.15</v>
+      </c>
+      <c r="M15">
+        <v>0.9</v>
+      </c>
+      <c r="N15">
+        <v>7.4</v>
+      </c>
+      <c r="O15">
+        <v>0.9</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>47</v>
+      </c>
+      <c r="R15" t="s">
+        <v>48</v>
+      </c>
+      <c r="S15" t="s">
+        <v>65</v>
+      </c>
+      <c r="T15">
+        <v>4</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>0.2</v>
+      </c>
+      <c r="X15" s="1">
+        <v>43521.791666666664</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>43524.291666666664</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL15">
+        <v>9</v>
+      </c>
+      <c r="AM15">
+        <v>0.8</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>1</v>
+      </c>
+      <c r="AQ15">
+        <v>5</v>
+      </c>
+      <c r="AR15">
+        <v>6</v>
+      </c>
+      <c r="AT15">
+        <v>10</v>
+      </c>
+      <c r="AU15">
+        <v>2</v>
+      </c>
+      <c r="AV15">
+        <v>10</v>
+      </c>
+      <c r="AW15">
+        <v>15</v>
+      </c>
+      <c r="AX15">
+        <v>21</v>
+      </c>
+      <c r="AY15">
+        <v>2000</v>
+      </c>
+      <c r="AZ15">
+        <v>2000</v>
+      </c>
+      <c r="BA15">
+        <v>1</v>
+      </c>
+      <c r="BB15">
+        <v>40</v>
+      </c>
+      <c r="BC15">
+        <v>120</v>
+      </c>
+      <c r="BD15">
+        <v>40</v>
+      </c>
+      <c r="BE15">
+        <v>0.3</v>
+      </c>
+      <c r="BF15">
         <v>0.16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="T7:AD7 T8:V8 T9:AD9 A7:B9 D7:G9 AF7:BB9 I7:R9 Q2:Q5">
-    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
-      <formula>A2&lt;&gt;A1</formula>
+  <conditionalFormatting sqref="A3:XFD6 A8:A11 C8:AH11 A13:XFD15 AJ8:XFD11">
+    <cfRule type="expression" dxfId="7" priority="14" stopIfTrue="1">
+      <formula>A3&lt;&gt;A2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y9">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="lessThan">
+  <conditionalFormatting sqref="Y2:Y15">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="lessThan">
       <formula>X2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:Y2">
-    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
       <formula>X2&lt;&gt;X1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X6:Y6 A6:B6 D6:G6 AF6:BB6 I6:R6 T6:V6">
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
-      <formula>A6&lt;&gt;A3</formula>
+  <conditionalFormatting sqref="X12:Y12 A12:B12 D12:G12 AJ12:BF12 I12:R12 T12:V12">
+    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
+      <formula>A12&lt;&gt;A3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X8:Y8">
-    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
-      <formula>X8&lt;&gt;X7</formula>
+  <conditionalFormatting sqref="X14:Y14">
+    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+      <formula>X14&lt;&gt;X13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X3:Y3 X5:Y5">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>X3&lt;&gt;X2</formula>
+  <conditionalFormatting sqref="X7:Y7">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+      <formula>X7&lt;&gt;X6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X4:Y4">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>X4&lt;&gt;X3</formula>
+  <conditionalFormatting sqref="B7:B11">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>B7&lt;&gt;B1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:XFD12">
+    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
+      <formula>A12&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inputs/InputSchedule.xlsx
+++ b/Inputs/InputSchedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/ah17992_bristol_ac_uk/Documents/DP5/Shared/DP5_modelling/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="248" documentId="13_ncr:4000b_{DEB44F97-88D2-433A-B317-5E3E680ACB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7C9A038-2E74-4CC8-ABF2-CED9820DC927}"/>
+  <xr:revisionPtr revIDLastSave="254" documentId="13_ncr:4000b_{DEB44F97-88D2-433A-B317-5E3E680ACB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{131B2BC4-14AA-45CE-8C88-86670E437039}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-330" yWindow="-450" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputSchedule" sheetId="1" r:id="rId1"/>
@@ -80,15 +80,6 @@
     <t>Connection Properties</t>
   </si>
   <si>
-    <t>Plug in SoC</t>
-  </si>
-  <si>
-    <t>Arrival Time</t>
-  </si>
-  <si>
-    <t>Departure Time</t>
-  </si>
-  <si>
     <t>Reserve Charge Duration</t>
   </si>
   <si>
@@ -293,7 +284,16 @@
     <t>Journey Destination</t>
   </si>
   <si>
-    <t>Journey Arrival Time</t>
+    <t>Plug In Time</t>
+  </si>
+  <si>
+    <t>Plug In SoC</t>
+  </si>
+  <si>
+    <t>Plug Out Time</t>
+  </si>
+  <si>
+    <t>Destination Arrival Time</t>
   </si>
 </sst>
 </file>
@@ -852,59 +852,7 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -1276,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Z27" sqref="Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,19 +1278,19 @@
   <sheetData>
     <row r="1" spans="1:70" s="5" customFormat="1" ht="122.25" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -1351,7 +1299,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>3</v>
@@ -1384,7 +1332,7 @@
         <v>12</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>13</v>
@@ -1396,148 +1344,148 @@
         <v>15</v>
       </c>
       <c r="W1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="AB1" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AE1" s="5" t="s">
         <v>87</v>
       </c>
       <c r="AF1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AM1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AN1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AO1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AR1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AS1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AV1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AY1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="BB1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BE1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BF1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="BD1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="BE1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="BF1" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="BG1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="BH1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BK1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BL1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BM1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BN1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BO1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="BM1" s="5" t="s">
+      <c r="BP1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="BN1" s="5" t="s">
+      <c r="BQ1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="BO1" s="5" t="s">
+      <c r="BR1" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="BP1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="BQ1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="BR1" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.25">
@@ -1545,10 +1493,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1581,13 +1529,13 @@
         <v>0.9</v>
       </c>
       <c r="Q2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T2">
         <v>4</v>
@@ -1605,22 +1553,22 @@
         <v>44255.291666666664</v>
       </c>
       <c r="Z2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AG2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH2" t="s">
         <v>51</v>
       </c>
-      <c r="AH2" t="s">
-        <v>54</v>
-      </c>
       <c r="AI2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AK2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AL2">
         <v>9</v>
@@ -1688,10 +1636,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1724,13 +1672,13 @@
         <v>0.9</v>
       </c>
       <c r="Q3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="S3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T3">
         <v>4</v>
@@ -1748,22 +1696,22 @@
         <v>43522.291666666664</v>
       </c>
       <c r="Z3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH3" t="s">
         <v>49</v>
       </c>
-      <c r="AA3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK3" t="s">
         <v>52</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>55</v>
       </c>
       <c r="AL3">
         <v>9</v>
@@ -1828,10 +1776,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1864,13 +1812,13 @@
         <v>0.9</v>
       </c>
       <c r="Q4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="S4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T4">
         <v>4</v>
@@ -1888,22 +1836,22 @@
         <v>43521.291666666664</v>
       </c>
       <c r="Z4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH4" t="s">
         <v>49</v>
       </c>
-      <c r="AA4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK4" t="s">
         <v>52</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>55</v>
       </c>
       <c r="AL4">
         <v>9</v>
@@ -1968,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2004,13 +1952,13 @@
         <v>0.9</v>
       </c>
       <c r="Q5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="S5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T5">
         <v>4</v>
@@ -2028,22 +1976,22 @@
         <v>43520.291666666664</v>
       </c>
       <c r="Z5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH5" t="s">
         <v>49</v>
       </c>
-      <c r="AA5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK5" t="s">
         <v>52</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>55</v>
       </c>
       <c r="AL5">
         <v>9</v>
@@ -2108,10 +2056,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2144,13 +2092,13 @@
         <v>0.9</v>
       </c>
       <c r="Q6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="S6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T6">
         <v>4</v>
@@ -2168,22 +2116,22 @@
         <v>43519.291666666664</v>
       </c>
       <c r="Z6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH6" t="s">
         <v>49</v>
       </c>
-      <c r="AA6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK6" t="s">
         <v>52</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>55</v>
       </c>
       <c r="AL6">
         <v>9</v>
@@ -2248,10 +2196,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2284,13 +2232,13 @@
         <v>0.9</v>
       </c>
       <c r="Q7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="S7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T7">
         <v>4</v>
@@ -2308,22 +2256,22 @@
         <v>44255.291666666664</v>
       </c>
       <c r="Z7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AA7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AG7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH7" t="s">
         <v>51</v>
       </c>
-      <c r="AH7" t="s">
-        <v>54</v>
-      </c>
       <c r="AI7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AK7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AL7">
         <v>9</v>
@@ -2391,10 +2339,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2427,13 +2375,13 @@
         <v>0.9</v>
       </c>
       <c r="Q8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="S8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T8">
         <v>4</v>
@@ -2451,22 +2399,22 @@
         <v>43522.291666666664</v>
       </c>
       <c r="Z8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH8" t="s">
         <v>49</v>
       </c>
-      <c r="AA8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK8" t="s">
         <v>52</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>55</v>
       </c>
       <c r="AL8">
         <v>9</v>
@@ -2531,10 +2479,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2567,13 +2515,13 @@
         <v>0.9</v>
       </c>
       <c r="Q9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="S9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T9">
         <v>4</v>
@@ -2591,22 +2539,22 @@
         <v>43521.291666666664</v>
       </c>
       <c r="Z9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH9" t="s">
         <v>49</v>
       </c>
-      <c r="AA9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK9" t="s">
         <v>52</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>55</v>
       </c>
       <c r="AL9">
         <v>9</v>
@@ -2671,10 +2619,10 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2707,13 +2655,13 @@
         <v>0.9</v>
       </c>
       <c r="Q10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="S10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T10">
         <v>4</v>
@@ -2731,22 +2679,22 @@
         <v>43520.291666666664</v>
       </c>
       <c r="Z10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH10" t="s">
         <v>49</v>
       </c>
-      <c r="AA10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH10" t="s">
+      <c r="AI10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK10" t="s">
         <v>52</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>55</v>
       </c>
       <c r="AL10">
         <v>9</v>
@@ -2811,10 +2759,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2847,13 +2795,13 @@
         <v>0.9</v>
       </c>
       <c r="Q11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="S11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T11">
         <v>4</v>
@@ -2871,22 +2819,22 @@
         <v>43519.291666666664</v>
       </c>
       <c r="Z11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH11" t="s">
         <v>49</v>
       </c>
-      <c r="AA11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH11" t="s">
+      <c r="AI11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK11" t="s">
         <v>52</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>55</v>
       </c>
       <c r="AL11">
         <v>9</v>
@@ -2951,10 +2899,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E12">
         <v>10000</v>
@@ -2987,13 +2935,13 @@
         <v>0.9</v>
       </c>
       <c r="Q12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="S12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T12">
         <v>4</v>
@@ -3011,22 +2959,22 @@
         <v>43524.291666666664</v>
       </c>
       <c r="Z12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AA12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK12" t="s">
         <v>50</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>53</v>
       </c>
       <c r="AL12">
         <v>9</v>
@@ -3091,10 +3039,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E13">
         <v>10000</v>
@@ -3127,13 +3075,13 @@
         <v>0.9</v>
       </c>
       <c r="Q13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="S13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T13">
         <v>4</v>
@@ -3151,22 +3099,22 @@
         <v>43524.291666666664</v>
       </c>
       <c r="Z13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH13" t="s">
         <v>49</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AI13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK13" t="s">
         <v>50</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>53</v>
       </c>
       <c r="AL13">
         <v>9</v>
@@ -3231,10 +3179,10 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3267,13 +3215,13 @@
         <v>0.9</v>
       </c>
       <c r="Q14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="S14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T14">
         <v>4</v>
@@ -3291,22 +3239,22 @@
         <v>43524.291666666664</v>
       </c>
       <c r="Z14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AA14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AG14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH14" t="s">
         <v>51</v>
       </c>
-      <c r="AH14" t="s">
-        <v>54</v>
-      </c>
       <c r="AI14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AK14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AL14">
         <v>9</v>
@@ -3371,10 +3319,10 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3407,13 +3355,13 @@
         <v>0.9</v>
       </c>
       <c r="Q15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="S15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T15">
         <v>4</v>
@@ -3431,22 +3379,22 @@
         <v>43524.291666666664</v>
       </c>
       <c r="Z15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH15" t="s">
         <v>49</v>
       </c>
-      <c r="AA15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH15" t="s">
+      <c r="AI15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK15" t="s">
         <v>52</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>55</v>
       </c>
       <c r="AL15">
         <v>9</v>

--- a/Inputs/InputSchedule.xlsx
+++ b/Inputs/InputSchedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/ah17992_bristol_ac_uk/Documents/DP5/Shared/DP5_modelling/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="254" documentId="13_ncr:4000b_{DEB44F97-88D2-433A-B317-5E3E680ACB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{131B2BC4-14AA-45CE-8C88-86670E437039}"/>
+  <xr:revisionPtr revIDLastSave="260" documentId="13_ncr:4000b_{DEB44F97-88D2-433A-B317-5E3E680ACB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{803E5058-B4C9-4ECC-B71F-4B692983E045}"/>
   <bookViews>
-    <workbookView xWindow="-330" yWindow="-450" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="1485" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputSchedule" sheetId="1" r:id="rId1"/>
@@ -852,7 +852,34 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1225,7 +1252,7 @@
   <dimension ref="A1:BR15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Z27" sqref="Z27"/>
+      <selection activeCell="AL7" sqref="AL7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,7 +1279,8 @@
     <col min="24" max="25" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="3.7109375" customWidth="1"/>
+    <col min="28" max="30" width="3.7109375" customWidth="1"/>
+    <col min="31" max="31" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="6.28515625" bestFit="1" customWidth="1"/>
@@ -1558,6 +1586,9 @@
       <c r="AA2" t="s">
         <v>47</v>
       </c>
+      <c r="AE2" s="1">
+        <v>44255.291666666664</v>
+      </c>
       <c r="AG2" t="s">
         <v>48</v>
       </c>
@@ -1700,6 +1731,9 @@
       </c>
       <c r="AA3" t="s">
         <v>47</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>43522.291666666664</v>
       </c>
       <c r="AG3" t="s">
         <v>48</v>
@@ -3456,44 +3490,59 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:XFD6 A8:A11 C8:AH11 A13:XFD15 AJ8:XFD11">
-    <cfRule type="expression" dxfId="7" priority="14" stopIfTrue="1">
+  <conditionalFormatting sqref="A8:A11 C8:AH11 A13:XFD15 AJ8:XFD11 A3:XFD6">
+    <cfRule type="expression" dxfId="10" priority="17" stopIfTrue="1">
       <formula>A3&lt;&gt;A2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y15">
-    <cfRule type="cellIs" dxfId="6" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="lessThan">
       <formula>X2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:Y2">
-    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
       <formula>X2&lt;&gt;X1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12:Y12 A12:B12 D12:G12 AJ12:BF12 I12:R12 T12:V12">
-    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
       <formula>A12&lt;&gt;A3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14:Y14">
-    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
       <formula>X14&lt;&gt;X13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X7:Y7">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>X7&lt;&gt;X6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B11">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>B7&lt;&gt;B1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:XFD12">
-    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="20" stopIfTrue="1">
       <formula>A12&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE2">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>AD2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE2">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>AE2&lt;&gt;AE1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE3">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>AD3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inputs/InputSchedule.xlsx
+++ b/Inputs/InputSchedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/ah17992_bristol_ac_uk/Documents/DP5/Shared/DP5_modelling/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="260" documentId="13_ncr:4000b_{DEB44F97-88D2-433A-B317-5E3E680ACB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{803E5058-B4C9-4ECC-B71F-4B692983E045}"/>
+  <xr:revisionPtr revIDLastSave="356" documentId="13_ncr:4000b_{DEB44F97-88D2-433A-B317-5E3E680ACB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4C4C0E1-7C00-4D69-AC37-625437A73065}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="1485" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputSchedule" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="85">
   <si>
     <t>Case</t>
   </si>
@@ -179,121 +179,112 @@
     <t>15 min</t>
   </si>
   <si>
+    <t>Electric</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Current Household of 4</t>
+  </si>
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>Cost of Change</t>
+  </si>
+  <si>
+    <t>Carbon Intensity</t>
+  </si>
+  <si>
+    <t>CombinedCO2.csv</t>
+  </si>
+  <si>
+    <t>Battery Carbon per kWh</t>
+  </si>
+  <si>
+    <t>Battery Motivation</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Journey Inputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle Type </t>
+  </si>
+  <si>
+    <t>Vehicle Range</t>
+  </si>
+  <si>
+    <t>Vehicle Mass</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heating </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driving Style </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regen Braking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPG </t>
+  </si>
+  <si>
+    <t>p per litre</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Reserve Destination</t>
+  </si>
+  <si>
+    <t>Journey Destination</t>
+  </si>
+  <si>
+    <t>Plug In Time</t>
+  </si>
+  <si>
+    <t>Plug In SoC</t>
+  </si>
+  <si>
+    <t>Plug Out Time</t>
+  </si>
+  <si>
+    <t>Destination Arrival Time</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Carbon</t>
+  </si>
+  <si>
     <t>EV</t>
   </si>
   <si>
-    <t>Electric</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t>Electric Heater</t>
-  </si>
-  <si>
     <t>Fixed22Tariff.csv</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Current Household of 4</t>
-  </si>
-  <si>
-    <t>Costs</t>
-  </si>
-  <si>
-    <t>Cost of Change</t>
-  </si>
-  <si>
-    <t>Agile Tariff</t>
-  </si>
-  <si>
-    <t>Carbon Intensity</t>
-  </si>
-  <si>
-    <t>CombinedCO2.csv</t>
-  </si>
-  <si>
-    <t>Battery Carbon per kWh</t>
-  </si>
-  <si>
-    <t>Battery Motivation</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Carbon</t>
-  </si>
-  <si>
-    <t>Carbon Motivated</t>
-  </si>
-  <si>
-    <t>Datum</t>
-  </si>
-  <si>
-    <t>Journey Inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vehicle Type </t>
-  </si>
-  <si>
-    <t>Vehicle Range</t>
-  </si>
-  <si>
-    <t>Vehicle Mass</t>
-  </si>
-  <si>
-    <t>Rain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heating </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooling </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Driving Style </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regen Braking </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPG </t>
-  </si>
-  <si>
-    <t>p per litre</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Origin</t>
-  </si>
-  <si>
-    <t>Reserve Destination</t>
-  </si>
-  <si>
-    <t>Journey Destination</t>
-  </si>
-  <si>
-    <t>Plug In Time</t>
-  </si>
-  <si>
-    <t>Plug In SoC</t>
-  </si>
-  <si>
-    <t>Plug Out Time</t>
-  </si>
-  <si>
-    <t>Destination Arrival Time</t>
   </si>
 </sst>
 </file>
@@ -852,34 +843,7 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -936,6 +900,16 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1249,19 +1223,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BR15"/>
+  <dimension ref="A1:BR6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AL7" sqref="AL7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6" bestFit="1" customWidth="1"/>
@@ -1284,7 +1258,7 @@
     <col min="32" max="32" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.28515625" customWidth="1"/>
+    <col min="35" max="35" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="3.7109375" bestFit="1" customWidth="1"/>
@@ -1306,19 +1280,19 @@
   <sheetData>
     <row r="1" spans="1:70" s="5" customFormat="1" ht="122.25" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -1327,7 +1301,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>3</v>
@@ -1360,7 +1334,7 @@
         <v>12</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>13</v>
@@ -1372,13 +1346,13 @@
         <v>15</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="Y1" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Z1" s="5" t="s">
         <v>16</v>
@@ -1387,16 +1361,16 @@
         <v>17</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AF1" s="3" t="s">
         <v>18</v>
@@ -1408,7 +1382,7 @@
         <v>20</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="AJ1" s="3" t="s">
         <v>21</v>
@@ -1480,40 +1454,40 @@
         <v>43</v>
       </c>
       <c r="BG1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="BI1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="BJ1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="BK1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="BL1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="BM1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="BN1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BO1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BP1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BQ1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BR1" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="BL1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="BM1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="BO1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="BP1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="BR1" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.25">
@@ -1521,10 +1495,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1557,13 +1531,13 @@
         <v>0.9</v>
       </c>
       <c r="Q2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="R2" t="s">
         <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="T2">
         <v>4</v>
@@ -1593,13 +1567,13 @@
         <v>48</v>
       </c>
       <c r="AH2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AL2">
         <v>9</v>
@@ -1664,16 +1638,16 @@
     </row>
     <row r="3" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G3">
         <v>54</v>
@@ -1709,7 +1683,7 @@
         <v>45</v>
       </c>
       <c r="S3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="T3">
         <v>4</v>
@@ -1721,10 +1695,10 @@
         <v>0.2</v>
       </c>
       <c r="X3" s="1">
-        <v>43521.791666666664</v>
+        <v>44248.791666666664</v>
       </c>
       <c r="Y3" s="1">
-        <v>43522.291666666664</v>
+        <v>44255.291666666664</v>
       </c>
       <c r="Z3" t="s">
         <v>46</v>
@@ -1733,19 +1707,19 @@
         <v>47</v>
       </c>
       <c r="AE3" s="1">
-        <v>43522.291666666664</v>
+        <v>44255.291666666664</v>
       </c>
       <c r="AG3" t="s">
         <v>48</v>
       </c>
       <c r="AH3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="AL3">
         <v>9</v>
@@ -1754,7 +1728,7 @@
         <v>0.8</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP3">
         <v>1</v>
@@ -1803,20 +1777,23 @@
       </c>
       <c r="BF3">
         <v>0.16</v>
+      </c>
+      <c r="BH3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G4">
         <v>54</v>
@@ -1852,7 +1829,7 @@
         <v>45</v>
       </c>
       <c r="S4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="T4">
         <v>4</v>
@@ -1864,10 +1841,10 @@
         <v>0.2</v>
       </c>
       <c r="X4" s="1">
-        <v>43520.791666666664</v>
+        <v>44248.791666666664</v>
       </c>
       <c r="Y4" s="1">
-        <v>43521.291666666664</v>
+        <v>44255.291666666664</v>
       </c>
       <c r="Z4" t="s">
         <v>46</v>
@@ -1875,17 +1852,20 @@
       <c r="AA4" t="s">
         <v>47</v>
       </c>
+      <c r="AE4" s="1">
+        <v>44255.291666666664</v>
+      </c>
       <c r="AG4" t="s">
         <v>48</v>
       </c>
       <c r="AH4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK4" t="s">
         <v>49</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>52</v>
       </c>
       <c r="AL4">
         <v>9</v>
@@ -1894,7 +1874,7 @@
         <v>0.8</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP4">
         <v>1</v>
@@ -1943,20 +1923,23 @@
       </c>
       <c r="BF4">
         <v>0.16</v>
+      </c>
+      <c r="BH4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G5">
         <v>54</v>
@@ -1992,7 +1975,7 @@
         <v>45</v>
       </c>
       <c r="S5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="T5">
         <v>4</v>
@@ -2004,10 +1987,10 @@
         <v>0.2</v>
       </c>
       <c r="X5" s="1">
-        <v>43519.791666666664</v>
+        <v>44248.791666666664</v>
       </c>
       <c r="Y5" s="1">
-        <v>43520.291666666664</v>
+        <v>44255.291666666664</v>
       </c>
       <c r="Z5" t="s">
         <v>46</v>
@@ -2015,17 +1998,20 @@
       <c r="AA5" t="s">
         <v>47</v>
       </c>
+      <c r="AE5" s="1">
+        <v>44255.291666666664</v>
+      </c>
       <c r="AG5" t="s">
         <v>48</v>
       </c>
       <c r="AH5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK5" t="s">
         <v>49</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>52</v>
       </c>
       <c r="AL5">
         <v>9</v>
@@ -2034,7 +2020,7 @@
         <v>0.8</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5">
         <v>1</v>
@@ -2083,17 +2069,20 @@
       </c>
       <c r="BF5">
         <v>0.16</v>
+      </c>
+      <c r="BH5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2126,13 +2115,13 @@
         <v>0.9</v>
       </c>
       <c r="Q6" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="R6" t="s">
         <v>45</v>
       </c>
       <c r="S6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="T6">
         <v>4</v>
@@ -2144,10 +2133,10 @@
         <v>0.2</v>
       </c>
       <c r="X6" s="1">
-        <v>43518.791666666664</v>
+        <v>44248.791666666664</v>
       </c>
       <c r="Y6" s="1">
-        <v>43519.291666666664</v>
+        <v>44255.291666666664</v>
       </c>
       <c r="Z6" t="s">
         <v>46</v>
@@ -2155,17 +2144,20 @@
       <c r="AA6" t="s">
         <v>47</v>
       </c>
+      <c r="AE6" s="1">
+        <v>44255.291666666664</v>
+      </c>
       <c r="AG6" t="s">
         <v>48</v>
       </c>
       <c r="AH6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK6" t="s">
         <v>49</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>52</v>
       </c>
       <c r="AL6">
         <v>9</v>
@@ -2174,7 +2166,7 @@
         <v>0.8</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP6">
         <v>1</v>
@@ -2224,1325 +2216,55 @@
       <c r="BF6">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>54</v>
-      </c>
-      <c r="H7">
-        <v>59000</v>
-      </c>
-      <c r="I7">
-        <v>13700</v>
-      </c>
-      <c r="J7">
-        <v>2437.5</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.15</v>
-      </c>
-      <c r="M7">
-        <v>0.9</v>
-      </c>
-      <c r="N7">
-        <v>7.4</v>
-      </c>
-      <c r="O7">
-        <v>0.9</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>44</v>
-      </c>
-      <c r="R7" t="s">
-        <v>45</v>
-      </c>
-      <c r="S7" t="s">
-        <v>62</v>
-      </c>
-      <c r="T7">
-        <v>4</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="W7">
-        <v>0.2</v>
-      </c>
-      <c r="X7" s="1">
-        <v>44248.791666666664</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>44255.291666666664</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL7">
-        <v>9</v>
-      </c>
-      <c r="AM7">
-        <v>0.8</v>
-      </c>
-      <c r="AN7">
-        <v>1</v>
-      </c>
-      <c r="AP7">
-        <v>1</v>
-      </c>
-      <c r="AQ7">
-        <v>5</v>
-      </c>
-      <c r="AR7">
-        <v>6</v>
-      </c>
-      <c r="AT7">
-        <v>10</v>
-      </c>
-      <c r="AU7">
-        <v>2</v>
-      </c>
-      <c r="AV7">
-        <v>10</v>
-      </c>
-      <c r="AW7">
-        <v>15</v>
-      </c>
-      <c r="AX7">
-        <v>21</v>
-      </c>
-      <c r="AY7">
-        <v>2000</v>
-      </c>
-      <c r="AZ7">
-        <v>2000</v>
-      </c>
-      <c r="BA7">
-        <v>1</v>
-      </c>
-      <c r="BB7">
-        <v>40</v>
-      </c>
-      <c r="BC7">
-        <v>120</v>
-      </c>
-      <c r="BD7">
-        <v>40</v>
-      </c>
-      <c r="BE7">
-        <v>0.3</v>
-      </c>
-      <c r="BF7">
-        <v>0.16</v>
-      </c>
-      <c r="BH7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>54</v>
-      </c>
-      <c r="H8">
-        <v>59000</v>
-      </c>
-      <c r="I8">
-        <v>13700</v>
-      </c>
-      <c r="J8">
-        <v>2437.5</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.15</v>
-      </c>
-      <c r="M8">
-        <v>0.9</v>
-      </c>
-      <c r="N8">
-        <v>7.4</v>
-      </c>
-      <c r="O8">
-        <v>0.9</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R8" t="s">
-        <v>45</v>
-      </c>
-      <c r="S8" t="s">
-        <v>62</v>
-      </c>
-      <c r="T8">
-        <v>4</v>
-      </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <v>0.2</v>
-      </c>
-      <c r="X8" s="1">
-        <v>43521.791666666664</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>43522.291666666664</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL8">
-        <v>9</v>
-      </c>
-      <c r="AM8">
-        <v>0.8</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>1</v>
-      </c>
-      <c r="AQ8">
-        <v>5</v>
-      </c>
-      <c r="AR8">
-        <v>6</v>
-      </c>
-      <c r="AT8">
-        <v>10</v>
-      </c>
-      <c r="AU8">
-        <v>2</v>
-      </c>
-      <c r="AV8">
-        <v>10</v>
-      </c>
-      <c r="AW8">
-        <v>15</v>
-      </c>
-      <c r="AX8">
-        <v>21</v>
-      </c>
-      <c r="AY8">
-        <v>2000</v>
-      </c>
-      <c r="AZ8">
-        <v>2000</v>
-      </c>
-      <c r="BA8">
-        <v>1</v>
-      </c>
-      <c r="BB8">
-        <v>40</v>
-      </c>
-      <c r="BC8">
-        <v>120</v>
-      </c>
-      <c r="BD8">
-        <v>40</v>
-      </c>
-      <c r="BE8">
-        <v>0.3</v>
-      </c>
-      <c r="BF8">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>54</v>
-      </c>
-      <c r="H9">
-        <v>59000</v>
-      </c>
-      <c r="I9">
-        <v>13700</v>
-      </c>
-      <c r="J9">
-        <v>2437.5</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.15</v>
-      </c>
-      <c r="M9">
-        <v>0.9</v>
-      </c>
-      <c r="N9">
-        <v>7.4</v>
-      </c>
-      <c r="O9">
-        <v>0.9</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>44</v>
-      </c>
-      <c r="R9" t="s">
-        <v>45</v>
-      </c>
-      <c r="S9" t="s">
-        <v>62</v>
-      </c>
-      <c r="T9">
-        <v>4</v>
-      </c>
-      <c r="U9">
-        <v>1</v>
-      </c>
-      <c r="W9">
-        <v>0.2</v>
-      </c>
-      <c r="X9" s="1">
-        <v>43520.791666666664</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>43521.291666666664</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL9">
-        <v>9</v>
-      </c>
-      <c r="AM9">
-        <v>0.8</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>1</v>
-      </c>
-      <c r="AQ9">
-        <v>5</v>
-      </c>
-      <c r="AR9">
-        <v>6</v>
-      </c>
-      <c r="AT9">
-        <v>10</v>
-      </c>
-      <c r="AU9">
-        <v>2</v>
-      </c>
-      <c r="AV9">
-        <v>10</v>
-      </c>
-      <c r="AW9">
-        <v>15</v>
-      </c>
-      <c r="AX9">
-        <v>21</v>
-      </c>
-      <c r="AY9">
-        <v>2000</v>
-      </c>
-      <c r="AZ9">
-        <v>2000</v>
-      </c>
-      <c r="BA9">
-        <v>1</v>
-      </c>
-      <c r="BB9">
-        <v>40</v>
-      </c>
-      <c r="BC9">
-        <v>120</v>
-      </c>
-      <c r="BD9">
-        <v>40</v>
-      </c>
-      <c r="BE9">
-        <v>0.3</v>
-      </c>
-      <c r="BF9">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>54</v>
-      </c>
-      <c r="H10">
-        <v>59000</v>
-      </c>
-      <c r="I10">
-        <v>13700</v>
-      </c>
-      <c r="J10">
-        <v>2437.5</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.15</v>
-      </c>
-      <c r="M10">
-        <v>0.9</v>
-      </c>
-      <c r="N10">
-        <v>7.4</v>
-      </c>
-      <c r="O10">
-        <v>0.9</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>44</v>
-      </c>
-      <c r="R10" t="s">
-        <v>45</v>
-      </c>
-      <c r="S10" t="s">
-        <v>62</v>
-      </c>
-      <c r="T10">
-        <v>4</v>
-      </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
-      <c r="W10">
-        <v>0.2</v>
-      </c>
-      <c r="X10" s="1">
-        <v>43519.791666666664</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>43520.291666666664</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL10">
-        <v>9</v>
-      </c>
-      <c r="AM10">
-        <v>0.8</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>1</v>
-      </c>
-      <c r="AQ10">
-        <v>5</v>
-      </c>
-      <c r="AR10">
-        <v>6</v>
-      </c>
-      <c r="AT10">
-        <v>10</v>
-      </c>
-      <c r="AU10">
-        <v>2</v>
-      </c>
-      <c r="AV10">
-        <v>10</v>
-      </c>
-      <c r="AW10">
-        <v>15</v>
-      </c>
-      <c r="AX10">
-        <v>21</v>
-      </c>
-      <c r="AY10">
-        <v>2000</v>
-      </c>
-      <c r="AZ10">
-        <v>2000</v>
-      </c>
-      <c r="BA10">
-        <v>1</v>
-      </c>
-      <c r="BB10">
-        <v>40</v>
-      </c>
-      <c r="BC10">
-        <v>120</v>
-      </c>
-      <c r="BD10">
-        <v>40</v>
-      </c>
-      <c r="BE10">
-        <v>0.3</v>
-      </c>
-      <c r="BF10">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>54</v>
-      </c>
-      <c r="H11">
-        <v>59000</v>
-      </c>
-      <c r="I11">
-        <v>13700</v>
-      </c>
-      <c r="J11">
-        <v>2437.5</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.15</v>
-      </c>
-      <c r="M11">
-        <v>0.9</v>
-      </c>
-      <c r="N11">
-        <v>7.4</v>
-      </c>
-      <c r="O11">
-        <v>0.9</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>44</v>
-      </c>
-      <c r="R11" t="s">
-        <v>45</v>
-      </c>
-      <c r="S11" t="s">
-        <v>62</v>
-      </c>
-      <c r="T11">
-        <v>4</v>
-      </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
-      <c r="W11">
-        <v>0.2</v>
-      </c>
-      <c r="X11" s="1">
-        <v>43518.791666666664</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>43519.291666666664</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL11">
-        <v>9</v>
-      </c>
-      <c r="AM11">
-        <v>0.8</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>1</v>
-      </c>
-      <c r="AQ11">
-        <v>5</v>
-      </c>
-      <c r="AR11">
-        <v>6</v>
-      </c>
-      <c r="AT11">
-        <v>10</v>
-      </c>
-      <c r="AU11">
-        <v>2</v>
-      </c>
-      <c r="AV11">
-        <v>10</v>
-      </c>
-      <c r="AW11">
-        <v>15</v>
-      </c>
-      <c r="AX11">
-        <v>21</v>
-      </c>
-      <c r="AY11">
-        <v>2000</v>
-      </c>
-      <c r="AZ11">
-        <v>2000</v>
-      </c>
-      <c r="BA11">
-        <v>1</v>
-      </c>
-      <c r="BB11">
-        <v>40</v>
-      </c>
-      <c r="BC11">
-        <v>120</v>
-      </c>
-      <c r="BD11">
-        <v>40</v>
-      </c>
-      <c r="BE11">
-        <v>0.3</v>
-      </c>
-      <c r="BF11">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12">
-        <v>10000</v>
-      </c>
-      <c r="G12">
-        <v>54</v>
-      </c>
-      <c r="H12">
-        <v>59000</v>
-      </c>
-      <c r="I12">
-        <v>13700</v>
-      </c>
-      <c r="J12">
-        <v>5</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.15</v>
-      </c>
-      <c r="M12">
-        <v>0.9</v>
-      </c>
-      <c r="N12">
-        <v>7.4</v>
-      </c>
-      <c r="O12">
-        <v>0.9</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>54</v>
-      </c>
-      <c r="R12" t="s">
-        <v>45</v>
-      </c>
-      <c r="S12" t="s">
-        <v>62</v>
-      </c>
-      <c r="T12">
-        <v>4</v>
-      </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-      <c r="W12">
-        <v>0.2</v>
-      </c>
-      <c r="X12" s="1">
-        <v>43521.791666666664</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>43524.291666666664</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL12">
-        <v>9</v>
-      </c>
-      <c r="AM12">
-        <v>0.8</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>1</v>
-      </c>
-      <c r="AQ12">
-        <v>5</v>
-      </c>
-      <c r="AR12">
-        <v>6</v>
-      </c>
-      <c r="AT12">
-        <v>10</v>
-      </c>
-      <c r="AU12">
-        <v>2</v>
-      </c>
-      <c r="AV12">
-        <v>10</v>
-      </c>
-      <c r="AW12">
-        <v>15</v>
-      </c>
-      <c r="AX12">
-        <v>21</v>
-      </c>
-      <c r="AY12">
-        <v>2000</v>
-      </c>
-      <c r="AZ12">
-        <v>2000</v>
-      </c>
-      <c r="BA12">
-        <v>1</v>
-      </c>
-      <c r="BB12">
-        <v>40</v>
-      </c>
-      <c r="BC12">
-        <v>120</v>
-      </c>
-      <c r="BD12">
-        <v>40</v>
-      </c>
-      <c r="BE12">
-        <v>0.3</v>
-      </c>
-      <c r="BF12">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13">
-        <v>10000</v>
-      </c>
-      <c r="G13">
-        <v>54</v>
-      </c>
-      <c r="H13">
-        <v>59000</v>
-      </c>
-      <c r="I13">
-        <v>13700</v>
-      </c>
-      <c r="J13">
-        <v>2437.5</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.15</v>
-      </c>
-      <c r="M13">
-        <v>0.9</v>
-      </c>
-      <c r="N13">
-        <v>7.4</v>
-      </c>
-      <c r="O13">
-        <v>0.9</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>54</v>
-      </c>
-      <c r="R13" t="s">
-        <v>45</v>
-      </c>
-      <c r="S13" t="s">
-        <v>62</v>
-      </c>
-      <c r="T13">
-        <v>4</v>
-      </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
-      <c r="W13">
-        <v>0.2</v>
-      </c>
-      <c r="X13" s="1">
-        <v>43521.791666666664</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>43524.291666666664</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL13">
-        <v>9</v>
-      </c>
-      <c r="AM13">
-        <v>0.8</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>1</v>
-      </c>
-      <c r="AQ13">
-        <v>5</v>
-      </c>
-      <c r="AR13">
-        <v>6</v>
-      </c>
-      <c r="AT13">
-        <v>10</v>
-      </c>
-      <c r="AU13">
-        <v>2</v>
-      </c>
-      <c r="AV13">
-        <v>10</v>
-      </c>
-      <c r="AW13">
-        <v>15</v>
-      </c>
-      <c r="AX13">
-        <v>21</v>
-      </c>
-      <c r="AY13">
-        <v>2000</v>
-      </c>
-      <c r="AZ13">
-        <v>2000</v>
-      </c>
-      <c r="BA13">
-        <v>1</v>
-      </c>
-      <c r="BB13">
-        <v>40</v>
-      </c>
-      <c r="BC13">
-        <v>120</v>
-      </c>
-      <c r="BD13">
-        <v>40</v>
-      </c>
-      <c r="BE13">
-        <v>0.3</v>
-      </c>
-      <c r="BF13">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>54</v>
-      </c>
-      <c r="H14">
-        <v>59000</v>
-      </c>
-      <c r="I14">
-        <v>13700</v>
-      </c>
-      <c r="J14">
-        <v>2437.5</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.15</v>
-      </c>
-      <c r="M14">
-        <v>0.9</v>
-      </c>
-      <c r="N14">
-        <v>7.4</v>
-      </c>
-      <c r="O14">
-        <v>0.9</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>44</v>
-      </c>
-      <c r="R14" t="s">
-        <v>45</v>
-      </c>
-      <c r="S14" t="s">
-        <v>62</v>
-      </c>
-      <c r="T14">
-        <v>4</v>
-      </c>
-      <c r="U14">
-        <v>1</v>
-      </c>
-      <c r="W14">
-        <v>0.2</v>
-      </c>
-      <c r="X14" s="1">
-        <v>43521.791666666664</v>
-      </c>
-      <c r="Y14" s="1">
-        <v>43524.291666666664</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL14">
-        <v>9</v>
-      </c>
-      <c r="AM14">
-        <v>0.8</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>1</v>
-      </c>
-      <c r="AQ14">
-        <v>5</v>
-      </c>
-      <c r="AR14">
-        <v>6</v>
-      </c>
-      <c r="AT14">
-        <v>10</v>
-      </c>
-      <c r="AU14">
-        <v>2</v>
-      </c>
-      <c r="AV14">
-        <v>10</v>
-      </c>
-      <c r="AW14">
-        <v>15</v>
-      </c>
-      <c r="AX14">
-        <v>21</v>
-      </c>
-      <c r="AY14">
-        <v>2000</v>
-      </c>
-      <c r="AZ14">
-        <v>2000</v>
-      </c>
-      <c r="BA14">
-        <v>1</v>
-      </c>
-      <c r="BB14">
-        <v>40</v>
-      </c>
-      <c r="BC14">
-        <v>120</v>
-      </c>
-      <c r="BD14">
-        <v>40</v>
-      </c>
-      <c r="BE14">
-        <v>0.3</v>
-      </c>
-      <c r="BF14">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>54</v>
-      </c>
-      <c r="H15">
-        <v>59000</v>
-      </c>
-      <c r="I15">
-        <v>13700</v>
-      </c>
-      <c r="J15">
-        <v>2437.5</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.15</v>
-      </c>
-      <c r="M15">
-        <v>0.9</v>
-      </c>
-      <c r="N15">
-        <v>7.4</v>
-      </c>
-      <c r="O15">
-        <v>0.9</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>44</v>
-      </c>
-      <c r="R15" t="s">
-        <v>45</v>
-      </c>
-      <c r="S15" t="s">
-        <v>62</v>
-      </c>
-      <c r="T15">
-        <v>4</v>
-      </c>
-      <c r="U15">
-        <v>1</v>
-      </c>
-      <c r="W15">
-        <v>0.2</v>
-      </c>
-      <c r="X15" s="1">
-        <v>43521.791666666664</v>
-      </c>
-      <c r="Y15" s="1">
-        <v>43524.291666666664</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL15">
-        <v>9</v>
-      </c>
-      <c r="AM15">
-        <v>0.8</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>1</v>
-      </c>
-      <c r="AQ15">
-        <v>5</v>
-      </c>
-      <c r="AR15">
-        <v>6</v>
-      </c>
-      <c r="AT15">
-        <v>10</v>
-      </c>
-      <c r="AU15">
-        <v>2</v>
-      </c>
-      <c r="AV15">
-        <v>10</v>
-      </c>
-      <c r="AW15">
-        <v>15</v>
-      </c>
-      <c r="AX15">
-        <v>21</v>
-      </c>
-      <c r="AY15">
-        <v>2000</v>
-      </c>
-      <c r="AZ15">
-        <v>2000</v>
-      </c>
-      <c r="BA15">
-        <v>1</v>
-      </c>
-      <c r="BB15">
-        <v>40</v>
-      </c>
-      <c r="BC15">
-        <v>120</v>
-      </c>
-      <c r="BD15">
-        <v>40</v>
-      </c>
-      <c r="BE15">
-        <v>0.3</v>
-      </c>
-      <c r="BF15">
-        <v>0.16</v>
+      <c r="BH6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A8:A11 C8:AH11 A13:XFD15 AJ8:XFD11 A3:XFD6">
-    <cfRule type="expression" dxfId="10" priority="17" stopIfTrue="1">
-      <formula>A3&lt;&gt;A2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y15">
-    <cfRule type="cellIs" dxfId="9" priority="14" operator="lessThan">
+  <conditionalFormatting sqref="Y2:Y6">
+    <cfRule type="cellIs" dxfId="8" priority="20" operator="lessThan">
       <formula>X2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:Y2">
-    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
-      <formula>X2&lt;&gt;X1</formula>
+  <conditionalFormatting sqref="A3:XFD5 A2:P2 R2:XFD2">
+    <cfRule type="expression" dxfId="7" priority="18" stopIfTrue="1">
+      <formula>A2&lt;&gt;A1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X12:Y12 A12:B12 D12:G12 AJ12:BF12 I12:R12 T12:V12">
-    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
-      <formula>A12&lt;&gt;A3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X14:Y14">
-    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
-      <formula>X14&lt;&gt;X13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X7:Y7">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
-      <formula>X7&lt;&gt;X6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B11">
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
-      <formula>B7&lt;&gt;B1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:XFD12">
-    <cfRule type="expression" dxfId="3" priority="20" stopIfTrue="1">
-      <formula>A12&lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE2">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="AE2:AE6">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="lessThan">
       <formula>AD2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE2">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="AE2:AE6">
+    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
       <formula>AE2&lt;&gt;AE1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE3">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>AD3</formula>
+  <conditionalFormatting sqref="X4:Y4">
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+      <formula>X4&lt;&gt;X3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X5:Y5">
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+      <formula>X5&lt;&gt;X4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6 C6:XFD6">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+      <formula>A6&lt;&gt;A5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>B6&lt;&gt;B5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>Q2&lt;&gt;Q1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inputs/InputSchedule.xlsx
+++ b/Inputs/InputSchedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/ah17992_bristol_ac_uk/Documents/DP5/Shared/DP5_modelling/Inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yazzadsukhia/Desktop/DP5_new_mod/DP5_modelling/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="260" documentId="13_ncr:4000b_{DEB44F97-88D2-433A-B317-5E3E680ACB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{803E5058-B4C9-4ECC-B71F-4B692983E045}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520A6D8A-63E5-1B41-A82C-8EEA04ABA668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="1485" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14260" yWindow="500" windowWidth="21060" windowHeight="18640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputSchedule" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="93">
   <si>
     <t>Case</t>
   </si>
@@ -242,9 +243,6 @@
     <t>Journey Inputs</t>
   </si>
   <si>
-    <t xml:space="preserve">Vehicle Type </t>
-  </si>
-  <si>
     <t>Vehicle Range</t>
   </si>
   <si>
@@ -254,21 +252,6 @@
     <t>Rain</t>
   </si>
   <si>
-    <t xml:space="preserve">Heating </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooling </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Driving Style </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regen Braking </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPG </t>
-  </si>
-  <si>
     <t>p per litre</t>
   </si>
   <si>
@@ -294,13 +277,49 @@
   </si>
   <si>
     <t>Destination Arrival Time</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Bristol, UK, BS8 2AB</t>
+  </si>
+  <si>
+    <t>Bristol, UK, BS1 2NJ</t>
+  </si>
+  <si>
+    <t>Distance up</t>
+  </si>
+  <si>
+    <t>Distance down</t>
+  </si>
+  <si>
+    <t>Driving Style</t>
+  </si>
+  <si>
+    <t>Heating</t>
+  </si>
+  <si>
+    <t>Vehicle Type</t>
+  </si>
+  <si>
+    <t>MPG</t>
+  </si>
+  <si>
+    <t>Regen Braking</t>
+  </si>
+  <si>
+    <t>Cooling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,6 +458,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="34">
@@ -788,7 +813,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -806,6 +831,20 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="36" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -871,12 +910,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1249,62 +1285,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BR15"/>
+  <dimension ref="A1:BT15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AL7" sqref="AL7"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="3.7109375" customWidth="1"/>
-    <col min="31" max="31" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.28515625" customWidth="1"/>
-    <col min="36" max="36" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.33203125" customWidth="1"/>
+    <col min="32" max="32" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.33203125" customWidth="1"/>
+    <col min="36" max="36" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="44" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="50" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="44" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="50" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="51" max="52" width="5" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="4" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="4" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="5" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="70" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="67" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="5" customFormat="1" ht="122.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" s="5" customFormat="1" ht="121">
       <c r="A1" s="5" t="s">
         <v>55</v>
       </c>
@@ -1372,13 +1417,13 @@
         <v>15</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Y1" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="Z1" s="5" t="s">
         <v>16</v>
@@ -1386,17 +1431,17 @@
       <c r="AA1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE1" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="AF1" s="3" t="s">
         <v>18</v>
@@ -1483,40 +1528,46 @@
         <v>69</v>
       </c>
       <c r="BH1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BK1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BL1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="BM1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="BQ1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BR1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="BM1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="BO1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="BP1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="BR1" s="5" t="s">
-        <v>80</v>
+      <c r="BS1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT1" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:72">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1586,8 +1637,17 @@
       <c r="AA2" t="s">
         <v>47</v>
       </c>
-      <c r="AE2" s="1">
-        <v>44255.291666666664</v>
+      <c r="AB2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="AG2" t="s">
         <v>48</v>
@@ -1658,11 +1718,47 @@
       <c r="BF2">
         <v>0.16</v>
       </c>
-      <c r="BH2">
-        <v>1</v>
+      <c r="BH2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BI2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BJ2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BK2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BL2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BO2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BP2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BQ2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BR2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BT2" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:72">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1732,8 +1828,17 @@
       <c r="AA3" t="s">
         <v>47</v>
       </c>
+      <c r="AB3" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC3" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>84</v>
+      </c>
       <c r="AE3" s="1">
-        <v>43522.291666666664</v>
+        <v>43522.305555555555</v>
       </c>
       <c r="AG3" t="s">
         <v>48</v>
@@ -1804,8 +1909,47 @@
       <c r="BF3">
         <v>0.16</v>
       </c>
+      <c r="BH3">
+        <v>1</v>
+      </c>
+      <c r="BI3">
+        <v>355</v>
+      </c>
+      <c r="BJ3">
+        <v>1684</v>
+      </c>
+      <c r="BK3">
+        <v>1</v>
+      </c>
+      <c r="BL3">
+        <v>1</v>
+      </c>
+      <c r="BM3">
+        <v>1</v>
+      </c>
+      <c r="BN3">
+        <v>1</v>
+      </c>
+      <c r="BO3">
+        <v>1</v>
+      </c>
+      <c r="BP3" s="8">
+        <v>46.8</v>
+      </c>
+      <c r="BQ3">
+        <v>143</v>
+      </c>
+      <c r="BR3">
+        <v>23</v>
+      </c>
+      <c r="BS3">
+        <v>150</v>
+      </c>
+      <c r="BT3">
+        <v>50</v>
+      </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:72">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1945,7 +2089,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:72">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2085,7 +2229,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:72">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2225,7 +2369,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:72">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2368,7 +2512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:72">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2508,7 +2652,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:72">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2648,7 +2792,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:72">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2788,7 +2932,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:72">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2928,7 +3072,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:72">
       <c r="A12">
         <v>3</v>
       </c>
@@ -3068,7 +3212,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:72">
       <c r="A13">
         <v>3</v>
       </c>
@@ -3208,7 +3352,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:72">
       <c r="A14">
         <v>4</v>
       </c>
@@ -3348,7 +3492,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:72">
       <c r="A15">
         <v>4</v>
       </c>
@@ -3490,54 +3634,54 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A8:A11 C8:AH11 A13:XFD15 AJ8:XFD11 A3:XFD6">
-    <cfRule type="expression" dxfId="10" priority="17" stopIfTrue="1">
+  <conditionalFormatting sqref="A8:A11 C8:AH11 A13:XFD15 AJ8:XFD11 BS3:XFD6 BH5:BR6 A3:AA6 AC4:BG6 AB5:AB6 AE3:BG3">
+    <cfRule type="expression" dxfId="10" priority="15" stopIfTrue="1">
       <formula>A3&lt;&gt;A2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y15">
-    <cfRule type="cellIs" dxfId="9" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="lessThan">
       <formula>X2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:Y2">
-    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
       <formula>X2&lt;&gt;X1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12:Y12 A12:B12 D12:G12 AJ12:BF12 I12:R12 T12:V12">
-    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
       <formula>A12&lt;&gt;A3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14:Y14">
-    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
       <formula>X14&lt;&gt;X13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X7:Y7">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>X7&lt;&gt;X6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B11">
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>B7&lt;&gt;B1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:XFD12">
-    <cfRule type="expression" dxfId="3" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="18" stopIfTrue="1">
       <formula>A12&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE2">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
-      <formula>AD2</formula>
+  <conditionalFormatting sqref="BH4:BR4">
+    <cfRule type="expression" dxfId="2" priority="20" stopIfTrue="1">
+      <formula>BH4&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE2">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>AE2&lt;&gt;AE1</formula>
+  <conditionalFormatting sqref="AB4">
+    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
+      <formula>AB4&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE3">

--- a/Inputs/InputSchedule.xlsx
+++ b/Inputs/InputSchedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yazzadsukhia/Desktop/DP5_new_mod/DP5_modelling/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D24411-AFB7-8440-AE8D-59E0E0CC4DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57505528-C0AC-AF43-B518-BDF5D0845882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14260" yWindow="500" windowWidth="21060" windowHeight="18640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8520" yWindow="500" windowWidth="26800" windowHeight="18640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputSchedule" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
   <si>
     <t>Case</t>
   </si>
@@ -81,12 +81,6 @@
     <t>Connection Properties</t>
   </si>
   <si>
-    <t>Reserve Charge Duration</t>
-  </si>
-  <si>
-    <t>Journey Charge Duration</t>
-  </si>
-  <si>
     <t>Simulation Properties</t>
   </si>
   <si>
@@ -171,12 +165,6 @@
     <t>AgileExport.csv</t>
   </si>
   <si>
-    <t>0.5 h</t>
-  </si>
-  <si>
-    <t>2 h</t>
-  </si>
-  <si>
     <t>15 min</t>
   </si>
   <si>
@@ -261,9 +249,6 @@
     <t>Destination Arrival Time</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Bristol, UK, BS8 2AB</t>
   </si>
   <si>
@@ -292,6 +277,15 @@
   </si>
   <si>
     <t>Cooling</t>
+  </si>
+  <si>
+    <t>London, UK, HA5 5SG</t>
+  </si>
+  <si>
+    <t>Electric</t>
+  </si>
+  <si>
+    <t>Carbon</t>
   </si>
 </sst>
 </file>
@@ -795,7 +789,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -815,18 +809,9 @@
       <alignment textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1242,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BT3"/>
+  <dimension ref="A1:BR3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1270,57 +1255,56 @@
     <col min="22" max="22" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.33203125" customWidth="1"/>
-    <col min="32" max="32" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.33203125" customWidth="1"/>
-    <col min="36" max="36" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.33203125" customWidth="1"/>
+    <col min="30" max="30" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.33203125" customWidth="1"/>
+    <col min="34" max="34" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="44" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="50" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="5" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="48" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="5" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="4" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="4" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="4" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="5" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="63" max="67" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="65" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="5" customFormat="1" ht="121">
+    <row r="1" spans="1:70" s="5" customFormat="1" ht="118">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -1329,7 +1313,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>3</v>
@@ -1362,7 +1346,7 @@
         <v>12</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>13</v>
@@ -1374,72 +1358,72 @@
         <v>15</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Y1" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="AG1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AI1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>21</v>
       </c>
       <c r="AK1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AL1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AM1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AN1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" s="5" t="s">
         <v>26</v>
       </c>
       <c r="AP1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="AR1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AS1" s="5" t="s">
         <v>30</v>
       </c>
       <c r="AT1" s="5" t="s">
@@ -1475,64 +1459,58 @@
       <c r="BD1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="BE1" s="5" t="s">
-        <v>42</v>
+      <c r="BE1" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="BF1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="BG1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BH1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="BI1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="BL1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="BH1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BP1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="BJ1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="BK1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="BL1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="BM1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="BN1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="BO1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="BP1" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="BQ1" s="5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="BR1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="BT1" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:72">
+    <row r="2" spans="1:70">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1565,13 +1543,13 @@
         <v>0.9</v>
       </c>
       <c r="Q2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="T2">
         <v>4</v>
@@ -1588,101 +1566,101 @@
       <c r="Y2" s="1">
         <v>44255.291666666664</v>
       </c>
-      <c r="Z2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="Z2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>44255.305555555555</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI2" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>43522.305555555555</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>51</v>
+      <c r="AJ2">
+        <v>9</v>
+      </c>
+      <c r="AK2">
+        <v>0.8</v>
       </c>
       <c r="AL2">
-        <v>9</v>
-      </c>
-      <c r="AM2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AN2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>5</v>
       </c>
       <c r="AP2">
-        <v>1</v>
-      </c>
-      <c r="AQ2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR2">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="AS2">
+        <v>2</v>
       </c>
       <c r="AT2">
         <v>10</v>
       </c>
       <c r="AU2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AV2">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AW2">
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="AX2">
-        <v>21</v>
+        <v>2000</v>
       </c>
       <c r="AY2">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="AZ2">
-        <v>2000</v>
+        <v>40</v>
       </c>
       <c r="BA2">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="BB2">
         <v>40</v>
       </c>
       <c r="BC2">
-        <v>120</v>
+        <v>0.3</v>
       </c>
       <c r="BD2">
-        <v>40</v>
-      </c>
-      <c r="BE2">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="BF2">
-        <v>0.16</v>
+        <v>1</v>
+      </c>
+      <c r="BG2">
+        <v>355</v>
       </c>
       <c r="BH2">
-        <v>1</v>
+        <v>1684</v>
       </c>
       <c r="BI2">
-        <v>355</v>
+        <v>1</v>
       </c>
       <c r="BJ2">
-        <v>1684</v>
+        <v>1</v>
       </c>
       <c r="BK2">
         <v>1</v>
@@ -1693,37 +1671,31 @@
       <c r="BM2">
         <v>1</v>
       </c>
-      <c r="BN2">
-        <v>1</v>
+      <c r="BN2" s="8">
+        <v>46.8</v>
       </c>
       <c r="BO2">
-        <v>1</v>
-      </c>
-      <c r="BP2" s="8">
-        <v>46.8</v>
+        <v>143</v>
+      </c>
+      <c r="BP2">
+        <v>23</v>
       </c>
       <c r="BQ2">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="BR2">
-        <v>23</v>
-      </c>
-      <c r="BS2">
-        <v>150</v>
-      </c>
-      <c r="BT2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:72">
+    <row r="3" spans="1:70">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1756,13 +1728,13 @@
         <v>0.9</v>
       </c>
       <c r="Q3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="T3">
         <v>4</v>
@@ -1779,101 +1751,101 @@
       <c r="Y3" s="1">
         <v>43522.291666666664</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Z3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>43522.305555555555</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF3" t="s">
         <v>46</v>
       </c>
-      <c r="AA3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB3" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC3" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD3" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>43522.305555555555</v>
-      </c>
       <c r="AG3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>51</v>
+        <v>83</v>
+      </c>
+      <c r="AJ3">
+        <v>9</v>
+      </c>
+      <c r="AK3">
+        <v>0.8</v>
       </c>
       <c r="AL3">
-        <v>9</v>
-      </c>
-      <c r="AM3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
+      <c r="AO3">
+        <v>5</v>
+      </c>
       <c r="AP3">
-        <v>1</v>
-      </c>
-      <c r="AQ3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR3">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="AS3">
+        <v>2</v>
       </c>
       <c r="AT3">
         <v>10</v>
       </c>
       <c r="AU3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AV3">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AW3">
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="AX3">
-        <v>21</v>
+        <v>2000</v>
       </c>
       <c r="AY3">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="AZ3">
-        <v>2000</v>
+        <v>40</v>
       </c>
       <c r="BA3">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="BB3">
         <v>40</v>
       </c>
       <c r="BC3">
-        <v>120</v>
+        <v>0.3</v>
       </c>
       <c r="BD3">
-        <v>40</v>
-      </c>
-      <c r="BE3">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="BF3">
-        <v>0.16</v>
+        <v>1</v>
+      </c>
+      <c r="BG3">
+        <v>355</v>
       </c>
       <c r="BH3">
-        <v>1</v>
+        <v>1684</v>
       </c>
       <c r="BI3">
-        <v>355</v>
+        <v>1</v>
       </c>
       <c r="BJ3">
-        <v>1684</v>
+        <v>1</v>
       </c>
       <c r="BK3">
         <v>1</v>
@@ -1884,63 +1856,57 @@
       <c r="BM3">
         <v>1</v>
       </c>
-      <c r="BN3">
-        <v>1</v>
+      <c r="BN3" s="8">
+        <v>46.8</v>
       </c>
       <c r="BO3">
-        <v>1</v>
-      </c>
-      <c r="BP3" s="8">
-        <v>46.8</v>
+        <v>143</v>
+      </c>
+      <c r="BP3">
+        <v>23</v>
       </c>
       <c r="BQ3">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="BR3">
-        <v>23</v>
-      </c>
-      <c r="BS3">
-        <v>150</v>
-      </c>
-      <c r="BT3">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AE3:BG3 BS3:XFD3 A3:AA3">
-    <cfRule type="expression" dxfId="6" priority="18" stopIfTrue="1">
+  <conditionalFormatting sqref="AC3:BE3 BQ3:XFD3 A3:Y3">
+    <cfRule type="expression" dxfId="6" priority="20" stopIfTrue="1">
       <formula>A3&lt;&gt;A2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y3">
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="17" operator="lessThan">
       <formula>X2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:Y2">
-    <cfRule type="expression" dxfId="4" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="15" stopIfTrue="1">
       <formula>X2&lt;&gt;X1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE3">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
-      <formula>AD3</formula>
+  <conditionalFormatting sqref="AC3">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
+      <formula>AB3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE2">
+  <conditionalFormatting sqref="BQ2:BR2">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>AE2&lt;&gt;AE1</formula>
+      <formula>BQ2&lt;&gt;BQ1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE2">
+  <conditionalFormatting sqref="AC2">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>AD2</formula>
+      <formula>AB2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS2:BT2">
+  <conditionalFormatting sqref="AC2">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>BS2&lt;&gt;BS1</formula>
+      <formula>AC2&lt;&gt;AC1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inputs/InputSchedule.xlsx
+++ b/Inputs/InputSchedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yazzadsukhia/Desktop/DP5_new_mod/DP5_modelling/Inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/ah17992_bristol_ac_uk/Documents/DP5/Shared/DP5_modelling/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57505528-C0AC-AF43-B518-BDF5D0845882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{57505528-C0AC-AF43-B518-BDF5D0845882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{046B966E-C5B5-4560-B7A1-C3A92403E256}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="500" windowWidth="26800" windowHeight="18640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputSchedule" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="85">
   <si>
     <t>Case</t>
   </si>
@@ -171,9 +171,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Home</t>
-  </si>
-  <si>
     <t>Gas</t>
   </si>
   <si>
@@ -285,7 +282,10 @@
     <t>Electric</t>
   </si>
   <si>
-    <t>Carbon</t>
+    <t>ASHP</t>
+  </si>
+  <si>
+    <t>GSHP</t>
   </si>
 </sst>
 </file>
@@ -295,7 +295,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,12 +434,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color theme="1"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="34">
@@ -789,9 +783,8 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
@@ -808,11 +801,16 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="36" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -858,7 +856,7 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -867,12 +865,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -901,6 +896,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -914,6 +923,78 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1227,686 +1308,1147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BR3"/>
+  <dimension ref="A1:BR5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AM11" sqref="AM11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.33203125" customWidth="1"/>
-    <col min="30" max="30" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.33203125" customWidth="1"/>
-    <col min="34" max="34" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.28515625" customWidth="1"/>
+    <col min="30" max="30" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.28515625" customWidth="1"/>
+    <col min="34" max="34" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="48" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="48" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="49" max="50" width="5" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="4" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="4" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="5" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="61" max="65" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="65" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="3.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="5" customFormat="1" ht="118">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:70" s="4" customFormat="1" ht="117.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:70" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="8">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="8">
+        <v>54</v>
+      </c>
+      <c r="H2" s="8">
+        <v>59000</v>
+      </c>
+      <c r="I2" s="8">
+        <v>13700</v>
+      </c>
+      <c r="J2" s="8">
+        <v>2437.5</v>
+      </c>
+      <c r="K2" s="8">
+        <v>1</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="M2" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="N2" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="O2" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="8">
+        <v>4</v>
+      </c>
+      <c r="U2" s="8">
+        <v>1</v>
+      </c>
+      <c r="V2" s="10"/>
+      <c r="W2" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="X2" s="11">
+        <v>44248.791666666664</v>
+      </c>
+      <c r="Y2" s="11">
+        <v>44255.291666666664</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC2" s="11">
+        <v>44255.305555555555</v>
+      </c>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ2" s="8">
+        <v>9</v>
+      </c>
+      <c r="AK2" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="AL2" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="8">
+        <v>5</v>
+      </c>
+      <c r="AP2" s="8">
+        <v>6</v>
+      </c>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="8">
+        <v>10</v>
+      </c>
+      <c r="AS2" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT2" s="8">
+        <v>10</v>
+      </c>
+      <c r="AU2" s="8">
+        <v>15</v>
+      </c>
+      <c r="AV2" s="8">
+        <v>21</v>
+      </c>
+      <c r="AW2" s="8">
+        <v>2000</v>
+      </c>
+      <c r="AX2" s="8">
+        <v>2000</v>
+      </c>
+      <c r="AY2" s="8">
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="8">
+        <v>40</v>
+      </c>
+      <c r="BA2" s="8">
+        <v>120</v>
+      </c>
+      <c r="BB2" s="8">
+        <v>40</v>
+      </c>
+      <c r="BC2" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="BD2" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="BE2" s="10"/>
+      <c r="BF2" s="8">
+        <v>1</v>
+      </c>
+      <c r="BG2" s="8">
+        <v>355</v>
+      </c>
+      <c r="BH2" s="8">
+        <v>1684</v>
+      </c>
+      <c r="BI2" s="8">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="8">
+        <v>1</v>
+      </c>
+      <c r="BK2" s="8">
+        <v>1</v>
+      </c>
+      <c r="BL2" s="8">
+        <v>1</v>
+      </c>
+      <c r="BM2" s="8">
+        <v>1</v>
+      </c>
+      <c r="BN2" s="12">
+        <v>46.8</v>
+      </c>
+      <c r="BO2" s="8">
+        <v>143</v>
+      </c>
+      <c r="BP2" s="8">
+        <v>23</v>
+      </c>
+      <c r="BQ2" s="8">
+        <v>150</v>
+      </c>
+      <c r="BR2" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:70" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="8">
+        <v>54</v>
+      </c>
+      <c r="H3" s="8">
+        <v>59000</v>
+      </c>
+      <c r="I3" s="8">
+        <v>13700</v>
+      </c>
+      <c r="J3" s="8">
+        <v>2437.5</v>
+      </c>
+      <c r="K3" s="8">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="N3" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="8">
+        <v>4</v>
+      </c>
+      <c r="U3" s="8">
+        <v>1</v>
+      </c>
+      <c r="V3" s="10"/>
+      <c r="W3" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="X3" s="11">
+        <v>44248.791666666664</v>
+      </c>
+      <c r="Y3" s="11">
+        <v>44255.291666666664</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC3" s="11">
+        <v>44255.305555555555</v>
+      </c>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ3" s="8">
+        <v>9</v>
+      </c>
+      <c r="AK3" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="AL3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="8">
+        <v>5</v>
+      </c>
+      <c r="AP3" s="8">
+        <v>6</v>
+      </c>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="8">
+        <v>10</v>
+      </c>
+      <c r="AS3" s="8">
         <v>2</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="AT3" s="8">
+        <v>10</v>
+      </c>
+      <c r="AU3" s="8">
+        <v>15</v>
+      </c>
+      <c r="AV3" s="8">
+        <v>21</v>
+      </c>
+      <c r="AW3" s="8">
+        <v>2000</v>
+      </c>
+      <c r="AX3" s="8">
+        <v>2000</v>
+      </c>
+      <c r="AY3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="8">
+        <v>40</v>
+      </c>
+      <c r="BA3" s="8">
+        <v>120</v>
+      </c>
+      <c r="BB3" s="8">
+        <v>40</v>
+      </c>
+      <c r="BC3" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="BD3" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="BE3" s="10"/>
+      <c r="BF3" s="8">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="8">
+        <v>355</v>
+      </c>
+      <c r="BH3" s="8">
+        <v>1684</v>
+      </c>
+      <c r="BI3" s="8">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="8">
+        <v>1</v>
+      </c>
+      <c r="BK3" s="8">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="8">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="8">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="12">
+        <v>46.8</v>
+      </c>
+      <c r="BO3" s="8">
+        <v>143</v>
+      </c>
+      <c r="BP3" s="8">
+        <v>23</v>
+      </c>
+      <c r="BQ3" s="8">
+        <v>150</v>
+      </c>
+      <c r="BR3" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:70" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8">
+        <v>54</v>
+      </c>
+      <c r="H4" s="8">
+        <v>59000</v>
+      </c>
+      <c r="I4" s="8">
+        <v>13700</v>
+      </c>
+      <c r="J4" s="8">
+        <v>2437.5</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="N4" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="O4" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T4" s="8">
         <v>4</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="U4" s="8">
+        <v>1</v>
+      </c>
+      <c r="V4" s="10"/>
+      <c r="W4" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="X4" s="11">
+        <v>44248.791666666664</v>
+      </c>
+      <c r="Y4" s="11">
+        <v>44255.291666666664</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC4" s="11">
+        <v>44255.305555555555</v>
+      </c>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>9</v>
+      </c>
+      <c r="AK4" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="AL4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="8">
         <v>5</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="AP4" s="8">
         <v>6</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="5" t="s">
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="8">
+        <v>10</v>
+      </c>
+      <c r="AS4" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT4" s="8">
+        <v>10</v>
+      </c>
+      <c r="AU4" s="8">
+        <v>15</v>
+      </c>
+      <c r="AV4" s="8">
+        <v>21</v>
+      </c>
+      <c r="AW4" s="8">
+        <v>2000</v>
+      </c>
+      <c r="AX4" s="8">
+        <v>2000</v>
+      </c>
+      <c r="AY4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="8">
+        <v>40</v>
+      </c>
+      <c r="BA4" s="8">
+        <v>120</v>
+      </c>
+      <c r="BB4" s="8">
+        <v>40</v>
+      </c>
+      <c r="BC4" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="BD4" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="BE4" s="10"/>
+      <c r="BF4" s="8">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="8">
+        <v>355</v>
+      </c>
+      <c r="BH4" s="8">
+        <v>1684</v>
+      </c>
+      <c r="BI4" s="8">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="8">
+        <v>1</v>
+      </c>
+      <c r="BK4" s="8">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="8">
+        <v>1</v>
+      </c>
+      <c r="BM4" s="8">
+        <v>1</v>
+      </c>
+      <c r="BN4" s="12">
+        <v>46.8</v>
+      </c>
+      <c r="BO4" s="8">
+        <v>143</v>
+      </c>
+      <c r="BP4" s="8">
+        <v>23</v>
+      </c>
+      <c r="BQ4" s="8">
+        <v>150</v>
+      </c>
+      <c r="BR4" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:70" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8">
+        <v>54</v>
+      </c>
+      <c r="H5" s="8">
+        <v>59000</v>
+      </c>
+      <c r="I5" s="8">
+        <v>13700</v>
+      </c>
+      <c r="J5" s="8">
+        <v>2437.5</v>
+      </c>
+      <c r="K5" s="8">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="N5" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T5" s="8">
+        <v>4</v>
+      </c>
+      <c r="U5" s="8">
+        <v>1</v>
+      </c>
+      <c r="V5" s="10"/>
+      <c r="W5" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="X5" s="11">
+        <v>44248.791666666664</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>44255.291666666664</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC5" s="11">
+        <v>44255.305555555555</v>
+      </c>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ5" s="8">
         <v>9</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="AK5" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="AL5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="8">
+        <v>5</v>
+      </c>
+      <c r="AP5" s="8">
+        <v>6</v>
+      </c>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="8">
         <v>10</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="3" t="s">
+      <c r="AS5" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT5" s="8">
+        <v>10</v>
+      </c>
+      <c r="AU5" s="8">
         <v>15</v>
       </c>
-      <c r="W1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AV5" s="8">
         <v>21</v>
       </c>
-      <c r="AK1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AW5" s="8">
+        <v>2000</v>
+      </c>
+      <c r="AX5" s="8">
+        <v>2000</v>
+      </c>
+      <c r="AY5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="8">
+        <v>40</v>
+      </c>
+      <c r="BA5" s="8">
+        <v>120</v>
+      </c>
+      <c r="BB5" s="8">
+        <v>40</v>
+      </c>
+      <c r="BC5" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="BD5" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="BE5" s="10"/>
+      <c r="BF5" s="8">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="8">
+        <v>355</v>
+      </c>
+      <c r="BH5" s="8">
+        <v>1684</v>
+      </c>
+      <c r="BI5" s="8">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="8">
+        <v>1</v>
+      </c>
+      <c r="BK5" s="8">
+        <v>1</v>
+      </c>
+      <c r="BL5" s="8">
+        <v>1</v>
+      </c>
+      <c r="BM5" s="8">
+        <v>1</v>
+      </c>
+      <c r="BN5" s="12">
+        <v>46.8</v>
+      </c>
+      <c r="BO5" s="8">
+        <v>143</v>
+      </c>
+      <c r="BP5" s="8">
         <v>23</v>
       </c>
-      <c r="AM1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AY1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="BB1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BC1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="BD1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="BH1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="BI1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="BJ1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="BK1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="BL1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="BM1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="BN1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="BO1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="BP1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="BR1" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:70">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>54</v>
-      </c>
-      <c r="H2">
-        <v>59000</v>
-      </c>
-      <c r="I2">
-        <v>13700</v>
-      </c>
-      <c r="J2">
-        <v>2437.5</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.15</v>
-      </c>
-      <c r="M2">
-        <v>0.9</v>
-      </c>
-      <c r="N2">
-        <v>7.4</v>
-      </c>
-      <c r="O2">
-        <v>0.9</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2">
-        <v>4</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>0.2</v>
-      </c>
-      <c r="X2" s="1">
-        <v>44248.791666666664</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>44255.291666666664</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>44255.305555555555</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ2">
-        <v>9</v>
-      </c>
-      <c r="AK2">
-        <v>0.8</v>
-      </c>
-      <c r="AL2">
-        <v>1</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>5</v>
-      </c>
-      <c r="AP2">
-        <v>6</v>
-      </c>
-      <c r="AR2">
-        <v>10</v>
-      </c>
-      <c r="AS2">
-        <v>2</v>
-      </c>
-      <c r="AT2">
-        <v>10</v>
-      </c>
-      <c r="AU2">
-        <v>15</v>
-      </c>
-      <c r="AV2">
-        <v>21</v>
-      </c>
-      <c r="AW2">
-        <v>2000</v>
-      </c>
-      <c r="AX2">
-        <v>2000</v>
-      </c>
-      <c r="AY2">
-        <v>1</v>
-      </c>
-      <c r="AZ2">
-        <v>40</v>
-      </c>
-      <c r="BA2">
-        <v>120</v>
-      </c>
-      <c r="BB2">
-        <v>40</v>
-      </c>
-      <c r="BC2">
-        <v>0.3</v>
-      </c>
-      <c r="BD2">
-        <v>0.16</v>
-      </c>
-      <c r="BF2">
-        <v>1</v>
-      </c>
-      <c r="BG2">
-        <v>355</v>
-      </c>
-      <c r="BH2">
-        <v>1684</v>
-      </c>
-      <c r="BI2">
-        <v>1</v>
-      </c>
-      <c r="BJ2">
-        <v>1</v>
-      </c>
-      <c r="BK2">
-        <v>1</v>
-      </c>
-      <c r="BL2">
-        <v>1</v>
-      </c>
-      <c r="BM2">
-        <v>1</v>
-      </c>
-      <c r="BN2" s="8">
-        <v>46.8</v>
-      </c>
-      <c r="BO2">
-        <v>143</v>
-      </c>
-      <c r="BP2">
-        <v>23</v>
-      </c>
-      <c r="BQ2">
+      <c r="BQ5" s="8">
         <v>150</v>
       </c>
-      <c r="BR2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:70">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>54</v>
-      </c>
-      <c r="H3">
-        <v>59000</v>
-      </c>
-      <c r="I3">
-        <v>13700</v>
-      </c>
-      <c r="J3">
-        <v>2437.5</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.15</v>
-      </c>
-      <c r="M3">
-        <v>0.9</v>
-      </c>
-      <c r="N3">
-        <v>7.4</v>
-      </c>
-      <c r="O3">
-        <v>0.9</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" t="s">
-        <v>54</v>
-      </c>
-      <c r="T3">
-        <v>4</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>0.2</v>
-      </c>
-      <c r="X3" s="1">
-        <v>43521.791666666664</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>43522.291666666664</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>43522.305555555555</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ3">
-        <v>9</v>
-      </c>
-      <c r="AK3">
-        <v>0.8</v>
-      </c>
-      <c r="AL3">
-        <v>1</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>5</v>
-      </c>
-      <c r="AP3">
-        <v>6</v>
-      </c>
-      <c r="AR3">
-        <v>10</v>
-      </c>
-      <c r="AS3">
-        <v>2</v>
-      </c>
-      <c r="AT3">
-        <v>10</v>
-      </c>
-      <c r="AU3">
-        <v>15</v>
-      </c>
-      <c r="AV3">
-        <v>21</v>
-      </c>
-      <c r="AW3">
-        <v>2000</v>
-      </c>
-      <c r="AX3">
-        <v>2000</v>
-      </c>
-      <c r="AY3">
-        <v>1</v>
-      </c>
-      <c r="AZ3">
-        <v>40</v>
-      </c>
-      <c r="BA3">
-        <v>120</v>
-      </c>
-      <c r="BB3">
-        <v>40</v>
-      </c>
-      <c r="BC3">
-        <v>0.3</v>
-      </c>
-      <c r="BD3">
-        <v>0.16</v>
-      </c>
-      <c r="BF3">
-        <v>1</v>
-      </c>
-      <c r="BG3">
-        <v>355</v>
-      </c>
-      <c r="BH3">
-        <v>1684</v>
-      </c>
-      <c r="BI3">
-        <v>1</v>
-      </c>
-      <c r="BJ3">
-        <v>1</v>
-      </c>
-      <c r="BK3">
-        <v>1</v>
-      </c>
-      <c r="BL3">
-        <v>1</v>
-      </c>
-      <c r="BM3">
-        <v>1</v>
-      </c>
-      <c r="BN3" s="8">
-        <v>46.8</v>
-      </c>
-      <c r="BO3">
-        <v>143</v>
-      </c>
-      <c r="BP3">
-        <v>23</v>
-      </c>
-      <c r="BQ3">
-        <v>150</v>
-      </c>
-      <c r="BR3">
+      <c r="BR5" s="8">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AC3:BE3 BQ3:XFD3 A3:Y3">
-    <cfRule type="expression" dxfId="6" priority="20" stopIfTrue="1">
-      <formula>A3&lt;&gt;A2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y3">
-    <cfRule type="cellIs" dxfId="5" priority="17" operator="lessThan">
+  <conditionalFormatting sqref="Y2:AB2">
+    <cfRule type="cellIs" dxfId="17" priority="31" operator="lessThan">
       <formula>X2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:Y2">
-    <cfRule type="expression" dxfId="4" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="29" stopIfTrue="1">
       <formula>X2&lt;&gt;X1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC3">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
-      <formula>AB3</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="BQ2:BR2">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
       <formula>BQ2&lt;&gt;BQ1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC2">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="AC2:AC5">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="lessThan">
       <formula>AB2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC2">
+  <conditionalFormatting sqref="AC2:AC5">
+    <cfRule type="expression" dxfId="13" priority="15" stopIfTrue="1">
+      <formula>AC2&lt;&gt;AC1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z2:AB2">
+    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
+      <formula>Z2&lt;&gt;Z1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y3:AB3">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
+      <formula>X3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3:Y3">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+      <formula>X3&lt;&gt;X2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BQ3:BR3">
+    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+      <formula>BQ3&lt;&gt;BQ2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3:AB3">
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+      <formula>Z3&lt;&gt;Z2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4:AB4">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+      <formula>X4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X4:Y4">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+      <formula>X4&lt;&gt;X3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BQ4:BR4">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+      <formula>BQ4&lt;&gt;BQ3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z4:AB4">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>Z4&lt;&gt;Z3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y5:AB5">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+      <formula>X5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X5:Y5">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>X5&lt;&gt;X4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BQ5:BR5">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>BQ5&lt;&gt;BQ4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z5:AB5">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>AC2&lt;&gt;AC1</formula>
+      <formula>Z5&lt;&gt;Z4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inputs/InputSchedule.xlsx
+++ b/Inputs/InputSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/ah17992_bristol_ac_uk/Documents/DP5/Shared/DP5_modelling/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{57505528-C0AC-AF43-B518-BDF5D0845882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{046B966E-C5B5-4560-B7A1-C3A92403E256}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{57505528-C0AC-AF43-B518-BDF5D0845882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3FA1386-6903-4AC1-AD1C-32592FA423BE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -279,13 +279,13 @@
     <t>London, UK, HA5 5SG</t>
   </si>
   <si>
-    <t>Electric</t>
-  </si>
-  <si>
-    <t>ASHP</t>
-  </si>
-  <si>
-    <t>GSHP</t>
+    <t>ICE</t>
+  </si>
+  <si>
+    <t>Fixed22Tariff.csv</t>
+  </si>
+  <si>
+    <t>Carbon</t>
   </si>
 </sst>
 </file>
@@ -856,124 +856,7 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -1310,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AM11" sqref="AM11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1668,7 +1551,7 @@
         <v>44</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AG2" s="8" t="s">
         <v>56</v>
@@ -1684,7 +1567,7 @@
         <v>0.8</v>
       </c>
       <c r="AL2" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="10"/>
       <c r="AN2" s="8">
@@ -1779,10 +1662,10 @@
     </row>
     <row r="3" spans="1:70" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>49</v>
@@ -1821,7 +1704,7 @@
       </c>
       <c r="P3" s="10"/>
       <c r="Q3" s="8" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R3" s="8" t="s">
         <v>43</v>
@@ -1869,7 +1752,7 @@
       </c>
       <c r="AH3" s="10"/>
       <c r="AI3" s="8" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="AJ3" s="8">
         <v>9</v>
@@ -1878,11 +1761,11 @@
         <v>0.8</v>
       </c>
       <c r="AL3" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="10"/>
       <c r="AN3" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO3" s="8">
         <v>5</v>
@@ -1973,10 +1856,10 @@
     </row>
     <row r="4" spans="1:70" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>49</v>
@@ -1999,7 +1882,7 @@
         <v>2437.5</v>
       </c>
       <c r="K4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="8">
         <v>0.15</v>
@@ -2015,7 +1898,7 @@
       </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="8" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>43</v>
@@ -2063,7 +1946,7 @@
       </c>
       <c r="AH4" s="10"/>
       <c r="AI4" s="8" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="AJ4" s="8">
         <v>9</v>
@@ -2072,11 +1955,11 @@
         <v>0.8</v>
       </c>
       <c r="AL4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="10"/>
       <c r="AN4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO4" s="8">
         <v>5</v>
@@ -2167,10 +2050,10 @@
     </row>
     <row r="5" spans="1:70" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>49</v>
@@ -2209,7 +2092,7 @@
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="8" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="R5" s="8" t="s">
         <v>43</v>
@@ -2253,11 +2136,11 @@
         <v>45</v>
       </c>
       <c r="AG5" s="8" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="AH5" s="10"/>
       <c r="AI5" s="8" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AJ5" s="8">
         <v>9</v>
@@ -2266,11 +2149,11 @@
         <v>0.8</v>
       </c>
       <c r="AL5" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="10"/>
       <c r="AN5" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO5" s="8">
         <v>5</v>
@@ -2361,94 +2244,19 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="Y2:AB2">
-    <cfRule type="cellIs" dxfId="17" priority="31" operator="lessThan">
+  <conditionalFormatting sqref="Y2:AC5">
+    <cfRule type="cellIs" dxfId="2" priority="31" operator="lessThan">
       <formula>X2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:Y2">
-    <cfRule type="expression" dxfId="16" priority="29" stopIfTrue="1">
+  <conditionalFormatting sqref="BQ2:BR4 X2:AC4">
+    <cfRule type="expression" dxfId="1" priority="29" stopIfTrue="1">
       <formula>X2&lt;&gt;X1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ2:BR2">
-    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
-      <formula>BQ2&lt;&gt;BQ1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC5">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="lessThan">
-      <formula>AB2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC5">
-    <cfRule type="expression" dxfId="13" priority="15" stopIfTrue="1">
-      <formula>AC2&lt;&gt;AC1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:AB2">
-    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
-      <formula>Z2&lt;&gt;Z1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:AB3">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
-      <formula>X3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X3:Y3">
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
-      <formula>X3&lt;&gt;X2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BQ3:BR3">
-    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
-      <formula>BQ3&lt;&gt;BQ2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:AB3">
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
-      <formula>Z3&lt;&gt;Z2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y4:AB4">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
-      <formula>X4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X4:Y4">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
-      <formula>X4&lt;&gt;X3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BQ4:BR4">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
-      <formula>BQ4&lt;&gt;BQ3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z4:AB4">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>Z4&lt;&gt;Z3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y5:AB5">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
-      <formula>X5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X5:Y5">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>X5&lt;&gt;X4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BQ5:BR5">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>BQ5&lt;&gt;BQ4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z5:AB5">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>Z5&lt;&gt;Z4</formula>
+  <conditionalFormatting sqref="BQ5:BR5 X5:AC5">
+    <cfRule type="expression" dxfId="0" priority="33" stopIfTrue="1">
+      <formula>X5&lt;&gt;X3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inputs/InputSchedule.xlsx
+++ b/Inputs/InputSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/ah17992_bristol_ac_uk/Documents/DP5/Shared/DP5_modelling/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{57505528-C0AC-AF43-B518-BDF5D0845882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3FA1386-6903-4AC1-AD1C-32592FA423BE}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{57505528-C0AC-AF43-B518-BDF5D0845882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0FB4A31-5C6D-4FE4-8B3E-8D69E086F444}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="86">
   <si>
     <t>Case</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>Carbon</t>
+  </si>
+  <si>
+    <t>Home</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1197,7 @@
   <dimension ref="A1:BR5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1856,10 +1859,10 @@
     </row>
     <row r="4" spans="1:70" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>49</v>
@@ -1898,7 +1901,7 @@
       </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="8" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>43</v>
@@ -1939,7 +1942,7 @@
         <v>44</v>
       </c>
       <c r="AF4" s="8" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="AG4" s="8" t="s">
         <v>56</v>
@@ -1955,7 +1958,7 @@
         <v>0.8</v>
       </c>
       <c r="AL4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4" s="10"/>
       <c r="AN4" s="8">

--- a/Inputs/InputSchedule.xlsx
+++ b/Inputs/InputSchedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/ah17992_bristol_ac_uk/Documents/DP5/Shared/DP5_modelling/Inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yazzadsukhia/Desktop/DP5_new_mod/DP5_modelling/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{57505528-C0AC-AF43-B518-BDF5D0845882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0FB4A31-5C6D-4FE4-8B3E-8D69E086F444}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C17C077-0C13-774F-910D-854AB1655B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11420" yWindow="1740" windowWidth="24420" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputSchedule" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
   <si>
     <t>Case</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>Home</t>
+  </si>
+  <si>
+    <t>Carbon Kg per litre Fuel</t>
   </si>
 </sst>
 </file>
@@ -1194,70 +1197,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BR5"/>
+  <dimension ref="A1:BS5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="BU4" sqref="BU4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.28515625" customWidth="1"/>
-    <col min="30" max="30" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.28515625" customWidth="1"/>
-    <col min="34" max="34" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.33203125" customWidth="1"/>
+    <col min="30" max="30" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.33203125" customWidth="1"/>
+    <col min="34" max="34" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="48" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="48" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="49" max="50" width="5" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="4" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="4" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="5" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="65" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="65" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="4" customFormat="1" ht="117.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:71" s="4" customFormat="1" ht="118" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>47</v>
       </c>
@@ -1468,8 +1472,11 @@
       <c r="BR1" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="BS1" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="2" spans="1:70" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:71" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1662,8 +1669,11 @@
       <c r="BR2" s="8">
         <v>50</v>
       </c>
+      <c r="BS2" s="8">
+        <v>2.31</v>
+      </c>
     </row>
-    <row r="3" spans="1:70" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:71" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1856,8 +1866,11 @@
       <c r="BR3" s="8">
         <v>50</v>
       </c>
+      <c r="BS3" s="8">
+        <v>2.31</v>
+      </c>
     </row>
-    <row r="4" spans="1:70" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:71" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -2050,8 +2063,11 @@
       <c r="BR4" s="8">
         <v>50</v>
       </c>
+      <c r="BS4" s="8">
+        <v>2.31</v>
+      </c>
     </row>
-    <row r="5" spans="1:70" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:71" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -2243,6 +2259,9 @@
       </c>
       <c r="BR5" s="8">
         <v>50</v>
+      </c>
+      <c r="BS5" s="8">
+        <v>2.31</v>
       </c>
     </row>
   </sheetData>
@@ -2252,7 +2271,7 @@
       <formula>X2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ2:BR4 X2:AC4">
+  <conditionalFormatting sqref="BQ2:BR4 X2:AC4 BS2:BS5">
     <cfRule type="expression" dxfId="1" priority="29" stopIfTrue="1">
       <formula>X2&lt;&gt;X1</formula>
     </cfRule>

--- a/Inputs/InputSchedule.xlsx
+++ b/Inputs/InputSchedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yazzadsukhia/Desktop/DP5_new_mod/DP5_modelling/Inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/ah17992_bristol_ac_uk/Documents/DP5/Shared/DP5_modelling/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C17C077-0C13-774F-910D-854AB1655B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{0C17C077-0C13-774F-910D-854AB1655B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DEE8E45-72BC-46A4-B552-CA427E8AB9CD}"/>
   <bookViews>
-    <workbookView xWindow="11420" yWindow="1740" windowWidth="24420" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17160" yWindow="3195" windowWidth="19050" windowHeight="15795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputSchedule" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
   <si>
     <t>Case</t>
   </si>
@@ -168,130 +168,127 @@
     <t>15 min</t>
   </si>
   <si>
-    <t>EV</t>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Current Household of 4</t>
+  </si>
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>Cost of Change</t>
+  </si>
+  <si>
+    <t>Carbon Intensity</t>
+  </si>
+  <si>
+    <t>CombinedCO2.csv</t>
+  </si>
+  <si>
+    <t>Battery Carbon per kWh</t>
+  </si>
+  <si>
+    <t>Battery Motivation</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Journey Inputs</t>
+  </si>
+  <si>
+    <t>Vehicle Range</t>
+  </si>
+  <si>
+    <t>Vehicle Mass</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>p per litre</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Reserve Destination</t>
+  </si>
+  <si>
+    <t>Journey Destination</t>
+  </si>
+  <si>
+    <t>Plug In Time</t>
+  </si>
+  <si>
+    <t>Plug In SoC</t>
+  </si>
+  <si>
+    <t>Plug Out Time</t>
+  </si>
+  <si>
+    <t>Destination Arrival Time</t>
+  </si>
+  <si>
+    <t>Bristol, UK, BS8 2AB</t>
+  </si>
+  <si>
+    <t>Bristol, UK, BS1 2NJ</t>
+  </si>
+  <si>
+    <t>Distance up</t>
+  </si>
+  <si>
+    <t>Distance down</t>
+  </si>
+  <si>
+    <t>Driving Style</t>
+  </si>
+  <si>
+    <t>Heating</t>
+  </si>
+  <si>
+    <t>Vehicle Type</t>
+  </si>
+  <si>
+    <t>MPG</t>
+  </si>
+  <si>
+    <t>Regen Braking</t>
+  </si>
+  <si>
+    <t>Cooling</t>
+  </si>
+  <si>
+    <t>London, UK, HA5 5SG</t>
+  </si>
+  <si>
+    <t>Carbon Kg per litre Fuel</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Electric</t>
   </si>
   <si>
     <t>Gas</t>
   </si>
   <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Current Household of 4</t>
-  </si>
-  <si>
-    <t>Costs</t>
-  </si>
-  <si>
-    <t>Cost of Change</t>
-  </si>
-  <si>
-    <t>Carbon Intensity</t>
-  </si>
-  <si>
-    <t>CombinedCO2.csv</t>
-  </si>
-  <si>
-    <t>Battery Carbon per kWh</t>
-  </si>
-  <si>
-    <t>Battery Motivation</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Datum</t>
-  </si>
-  <si>
-    <t>Journey Inputs</t>
-  </si>
-  <si>
-    <t>Vehicle Range</t>
-  </si>
-  <si>
-    <t>Vehicle Mass</t>
-  </si>
-  <si>
-    <t>Rain</t>
-  </si>
-  <si>
-    <t>p per litre</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Origin</t>
-  </si>
-  <si>
-    <t>Reserve Destination</t>
-  </si>
-  <si>
-    <t>Journey Destination</t>
-  </si>
-  <si>
-    <t>Plug In Time</t>
-  </si>
-  <si>
-    <t>Plug In SoC</t>
-  </si>
-  <si>
-    <t>Plug Out Time</t>
-  </si>
-  <si>
-    <t>Destination Arrival Time</t>
-  </si>
-  <si>
-    <t>Bristol, UK, BS8 2AB</t>
-  </si>
-  <si>
-    <t>Bristol, UK, BS1 2NJ</t>
-  </si>
-  <si>
-    <t>Distance up</t>
-  </si>
-  <si>
-    <t>Distance down</t>
-  </si>
-  <si>
-    <t>Driving Style</t>
-  </si>
-  <si>
-    <t>Heating</t>
-  </si>
-  <si>
-    <t>Vehicle Type</t>
-  </si>
-  <si>
-    <t>MPG</t>
-  </si>
-  <si>
-    <t>Regen Braking</t>
-  </si>
-  <si>
-    <t>Cooling</t>
-  </si>
-  <si>
-    <t>London, UK, HA5 5SG</t>
-  </si>
-  <si>
-    <t>ICE</t>
-  </si>
-  <si>
-    <t>Fixed22Tariff.csv</t>
-  </si>
-  <si>
-    <t>Carbon</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>Carbon Kg per litre Fuel</t>
+    <t>ASHP</t>
+  </si>
+  <si>
+    <t>GSHP</t>
   </si>
 </sst>
 </file>
@@ -862,11 +859,55 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1199,83 +1240,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BS5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="BU4" sqref="BU4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.33203125" customWidth="1"/>
-    <col min="30" max="30" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.33203125" customWidth="1"/>
-    <col min="34" max="34" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.28515625" customWidth="1"/>
+    <col min="30" max="30" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.28515625" customWidth="1"/>
+    <col min="34" max="34" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="48" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="48" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="49" max="50" width="5" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="4" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="4" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="5" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="61" max="65" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="65" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" s="4" customFormat="1" ht="118" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:71" s="4" customFormat="1" ht="117.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -1284,7 +1325,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>3</v>
@@ -1317,7 +1358,7 @@
         <v>12</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>13</v>
@@ -1329,25 +1370,25 @@
         <v>15</v>
       </c>
       <c r="W1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC1" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>16</v>
@@ -1359,7 +1400,7 @@
         <v>18</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH1" s="2" t="s">
         <v>19</v>
@@ -1431,60 +1472,60 @@
         <v>41</v>
       </c>
       <c r="BE1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="BG1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BJ1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BS1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="BL1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="BN1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="BO1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="BP1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="BQ1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BR1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="BS1" s="4" t="s">
-        <v>86</v>
-      </c>
     </row>
-    <row r="2" spans="1:71" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:71" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="8">
@@ -1526,7 +1567,7 @@
         <v>43</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T2" s="8">
         <v>4</v>
@@ -1539,36 +1580,36 @@
         <v>0.2</v>
       </c>
       <c r="X2" s="11">
-        <v>44248.791666666664</v>
+        <v>44398.791666666664</v>
       </c>
       <c r="Y2" s="11">
-        <v>44255.291666666664</v>
+        <v>44405.291666666664</v>
       </c>
       <c r="Z2" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AA2" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AC2" s="11">
-        <v>44255.305555555555</v>
+        <v>44405.305555555555</v>
       </c>
       <c r="AD2" s="10"/>
       <c r="AE2" s="8" t="s">
         <v>44</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AH2" s="10"/>
       <c r="AI2" s="8" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="AJ2" s="8">
         <v>9</v>
@@ -1577,11 +1618,11 @@
         <v>0.8</v>
       </c>
       <c r="AL2" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM2" s="10"/>
       <c r="AN2" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO2" s="8">
         <v>5</v>
@@ -1673,15 +1714,15 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="3" spans="1:71" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:71" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="8">
@@ -1717,13 +1758,13 @@
       </c>
       <c r="P3" s="10"/>
       <c r="Q3" s="8" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="R3" s="8" t="s">
         <v>43</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T3" s="8">
         <v>4</v>
@@ -1736,36 +1777,36 @@
         <v>0.2</v>
       </c>
       <c r="X3" s="11">
-        <v>44248.791666666664</v>
+        <v>44398.791666666664</v>
       </c>
       <c r="Y3" s="11">
-        <v>44255.291666666664</v>
+        <v>44405.291666666664</v>
       </c>
       <c r="Z3" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AA3" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AB3" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AC3" s="11">
-        <v>44255.305555555555</v>
+        <v>44405.305555555555</v>
       </c>
       <c r="AD3" s="10"/>
       <c r="AE3" s="8" t="s">
         <v>44</v>
       </c>
       <c r="AF3" s="8" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AG3" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AH3" s="10"/>
       <c r="AI3" s="8" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="AJ3" s="8">
         <v>9</v>
@@ -1774,7 +1815,7 @@
         <v>0.8</v>
       </c>
       <c r="AL3" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3" s="10"/>
       <c r="AN3" s="8">
@@ -1870,15 +1911,15 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="4" spans="1:71" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:71" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="8">
@@ -1898,7 +1939,7 @@
         <v>2437.5</v>
       </c>
       <c r="K4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="8">
         <v>0.15</v>
@@ -1920,7 +1961,7 @@
         <v>43</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T4" s="8">
         <v>4</v>
@@ -1933,36 +1974,36 @@
         <v>0.2</v>
       </c>
       <c r="X4" s="11">
-        <v>44248.791666666664</v>
+        <v>44398.791666666664</v>
       </c>
       <c r="Y4" s="11">
-        <v>44255.291666666664</v>
+        <v>44405.291666666664</v>
       </c>
       <c r="Z4" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AA4" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AB4" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AC4" s="11">
-        <v>44255.305555555555</v>
+        <v>44405.305555555555</v>
       </c>
       <c r="AD4" s="10"/>
       <c r="AE4" s="8" t="s">
         <v>44</v>
       </c>
       <c r="AF4" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AG4" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AH4" s="10"/>
       <c r="AI4" s="8" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AJ4" s="8">
         <v>9</v>
@@ -2067,15 +2108,15 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="5" spans="1:71" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:71" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="8">
@@ -2111,13 +2152,13 @@
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="8" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="R5" s="8" t="s">
         <v>43</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T5" s="8">
         <v>4</v>
@@ -2130,36 +2171,36 @@
         <v>0.2</v>
       </c>
       <c r="X5" s="11">
-        <v>44248.791666666664</v>
+        <v>44398.791666666664</v>
       </c>
       <c r="Y5" s="11">
-        <v>44255.291666666664</v>
+        <v>44405.291666666664</v>
       </c>
       <c r="Z5" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AA5" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AB5" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AC5" s="11">
-        <v>44255.305555555555</v>
+        <v>44405.305555555555</v>
       </c>
       <c r="AD5" s="10"/>
       <c r="AE5" s="8" t="s">
         <v>44</v>
       </c>
       <c r="AF5" s="8" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AG5" s="8" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="AH5" s="10"/>
       <c r="AI5" s="8" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="AJ5" s="8">
         <v>9</v>
@@ -2168,7 +2209,7 @@
         <v>0.8</v>
       </c>
       <c r="AL5" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5" s="10"/>
       <c r="AN5" s="8">
@@ -2266,19 +2307,44 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="Y2:AC5">
-    <cfRule type="cellIs" dxfId="2" priority="31" operator="lessThan">
+  <conditionalFormatting sqref="Y2:AC2">
+    <cfRule type="cellIs" dxfId="7" priority="37" operator="lessThan">
       <formula>X2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ2:BR4 X2:AC4 BS2:BS5">
-    <cfRule type="expression" dxfId="1" priority="29" stopIfTrue="1">
+  <conditionalFormatting sqref="X2:AC2 BQ2:BS2">
+    <cfRule type="expression" dxfId="6" priority="35" stopIfTrue="1">
       <formula>X2&lt;&gt;X1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ5:BR5 X5:AC5">
-    <cfRule type="expression" dxfId="0" priority="33" stopIfTrue="1">
-      <formula>X5&lt;&gt;X3</formula>
+  <conditionalFormatting sqref="Y3:AC3">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+      <formula>X3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3:AC3 BQ3:BS3">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>X3&lt;&gt;X2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4:AC4">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+      <formula>X4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X4:AC4 BQ4:BS4">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>X4&lt;&gt;X3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y5:AC5">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>X5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X5:AC5 BQ5:BS5">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>X5&lt;&gt;X4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
